--- a/variables_accesibilidad_vivienda.xlsx
+++ b/variables_accesibilidad_vivienda.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Desktop\TFG\CORRECCIÓN FINAL\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Desktop\TFG\CORRECCIÓN FINAL\Python_TFG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF53CC3-4895-4D91-A900-22F8306AE92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377C9EBA-5CC5-4B4B-BFCD-CF287FAE5E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="ANALISIS 2015-2022" sheetId="18" r:id="rId1"/>
     <sheet name="TASA ESFUERZO 2015-2022" sheetId="19" r:id="rId2"/>
     <sheet name="Descripción Variables Provincia" sheetId="15" r:id="rId3"/>
-    <sheet name="Descripcion CP" sheetId="20" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="149">
   <si>
     <t>Categoría</t>
   </si>
@@ -444,54 +443,6 @@
     <t>2018</t>
   </si>
   <si>
-    <t>PCA</t>
-  </si>
-  <si>
-    <t>Representa</t>
-  </si>
-  <si>
-    <t>Valor alto</t>
-  </si>
-  <si>
-    <t>Valor bajo</t>
-  </si>
-  <si>
-    <t>PC1</t>
-  </si>
-  <si>
-    <t>Dinamismo económico e inmobiliario</t>
-  </si>
-  <si>
-    <t>Expansión, empleo, hipotecas, población creciente</t>
-  </si>
-  <si>
-    <t>Estancamiento o retracción</t>
-  </si>
-  <si>
-    <t>PC2</t>
-  </si>
-  <si>
-    <t>Presión de precios vs. empleo/PIB</t>
-  </si>
-  <si>
-    <t>Aumento de precios sin mejora en condiciones reales</t>
-  </si>
-  <si>
-    <t>Precios estables con buena economía</t>
-  </si>
-  <si>
-    <t>PC3</t>
-  </si>
-  <si>
-    <t>Oferta habitacional vs. presión inflacionaria/demográfica</t>
-  </si>
-  <si>
-    <t>Mucha vivienda nueva, PIB alto, baja inflación</t>
-  </si>
-  <si>
-    <t>Poca oferta con presión poblacional y alza de precios</t>
-  </si>
-  <si>
     <t>Unidad medida</t>
   </si>
   <si>
@@ -562,7 +513,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -886,7 +837,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -943,7 +894,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="10" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -954,12 +905,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Euro" xfId="4" xr:uid="{277A9C62-456E-4E59-9F3C-FA1AD9C59CC7}"/>
@@ -975,6 +920,26 @@
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="45">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1175,26 +1140,6 @@
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -1875,7 +1820,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00BE0441-88DA-4FE3-8DA9-90101B000B5D}" name="Tabla47" displayName="Tabla47" ref="A1:L157" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41">
-  <autoFilter ref="A1:L157" xr:uid="{00BE0441-88DA-4FE3-8DA9-90101B000B5D}"/>
+  <autoFilter ref="A1:L157" xr:uid="{00BE0441-88DA-4FE3-8DA9-90101B000B5D}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="2015"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{60ABAAA1-267D-4797-8697-8DC28F1E6A87}" name="Provincia " dataDxfId="40"/>
     <tableColumn id="2" xr3:uid="{E0585F68-5485-474B-8CD5-6998130BF130}" name="Año" dataDxfId="39"/>
@@ -1929,13 +1880,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ED10D5BE-CD0B-443D-B3D2-779E990D5305}" name="Tabla2" displayName="Tabla2" ref="A1:G11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A1:G11" xr:uid="{ED10D5BE-CD0B-443D-B3D2-779E990D5305}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{94B95CE8-9D94-408B-8FD0-C691949AC725}" name="Categoría" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{FE613F80-422B-4588-B791-6D938D6706D2}" name="Variable" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{20376051-7804-4B1D-8826-C1F68B065CE5}" name="Definición" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{89870CAD-CECA-4CCA-A122-AAF2463151C7}" name="Periodo" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{A87E1963-7C64-4731-84E4-497783781D76}" name="Unidad medida" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{4573B209-4A2B-4B5F-9B08-1864E0A2300A}" name="Fuente " dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{A793C0CD-BDA4-47EC-A8EE-79D81BE12C2B}" name="LINK " dataDxfId="6" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="1" xr3:uid="{94B95CE8-9D94-408B-8FD0-C691949AC725}" name="Categoría" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{FE613F80-422B-4588-B791-6D938D6706D2}" name="Variable" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{20376051-7804-4B1D-8826-C1F68B065CE5}" name="Definición" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{89870CAD-CECA-4CCA-A122-AAF2463151C7}" name="Periodo" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A87E1963-7C64-4731-84E4-497783781D76}" name="Unidad medida" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{4573B209-4A2B-4B5F-9B08-1864E0A2300A}" name="Fuente " dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{A793C0CD-BDA4-47EC-A8EE-79D81BE12C2B}" name="LINK " dataDxfId="0" dataCellStyle="Hipervínculo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2234,7 +2185,7 @@
   <dimension ref="A1:L157"/>
   <sheetViews>
     <sheetView zoomScale="76" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A106" sqref="A106:L157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2290,7 +2241,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>67</v>
       </c>
@@ -2328,7 +2279,7 @@
         <v>5.6879606561117063E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>76</v>
       </c>
@@ -2366,7 +2317,7 @@
         <v>7.3680291376602997E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>42</v>
       </c>
@@ -2404,7 +2355,7 @@
         <v>3.5676957438821174E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>90</v>
       </c>
@@ -2442,7 +2393,7 @@
         <v>3.8216331949810414E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -2480,7 +2431,7 @@
         <v>4.6502091200633826E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>58</v>
       </c>
@@ -2518,7 +2469,7 @@
         <v>4.5971923611989379E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>79</v>
       </c>
@@ -2556,7 +2507,7 @@
         <v>3.3479716509413455E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>72</v>
       </c>
@@ -2594,7 +2545,7 @@
         <v>4.0973424365988286E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>91</v>
       </c>
@@ -2632,7 +2583,7 @@
         <v>4.1936965782220122E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>59</v>
       </c>
@@ -2670,7 +2621,7 @@
         <v>7.2976664929797633E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>80</v>
       </c>
@@ -2708,7 +2659,7 @@
         <v>3.6177976044661623E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
@@ -2746,7 +2697,7 @@
         <v>4.4209849203669287E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>57</v>
       </c>
@@ -2784,7 +2735,7 @@
         <v>4.5182626639471675E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
@@ -2822,7 +2773,7 @@
         <v>3.2779335473471765E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
@@ -2860,7 +2811,7 @@
         <v>2.6709337439994223E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>68</v>
       </c>
@@ -2898,7 +2849,7 @@
         <v>5.3300081906089165E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
@@ -2936,7 +2887,7 @@
         <v>3.7373909981565485E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>81</v>
       </c>
@@ -2974,7 +2925,7 @@
         <v>2.4348183491484836E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>69</v>
       </c>
@@ -3012,7 +2963,7 @@
         <v>3.9802269292830983E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>92</v>
       </c>
@@ -3050,7 +3001,7 @@
         <v>5.7936163927456248E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>73</v>
       </c>
@@ -3088,7 +3039,7 @@
         <v>4.6012617867162041E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>45</v>
       </c>
@@ -3126,7 +3077,7 @@
         <v>4.4924711519793662E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>70</v>
       </c>
@@ -3164,7 +3115,7 @@
         <v>7.5822278248740332E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>46</v>
       </c>
@@ -3202,7 +3153,7 @@
         <v>2.5153045882559863E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>50</v>
       </c>
@@ -3240,7 +3191,7 @@
         <v>5.9656873181463347E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
@@ -3278,7 +3229,7 @@
         <v>7.8110990524867443E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>47</v>
       </c>
@@ -3316,7 +3267,7 @@
         <v>3.4019440138129829E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
@@ -3354,7 +3305,7 @@
         <v>6.8710689857827013E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>55</v>
       </c>
@@ -3392,7 +3343,7 @@
         <v>3.3796855838745523E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>60</v>
       </c>
@@ -3430,7 +3381,7 @@
         <v>2.6061015799490827E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>74</v>
       </c>
@@ -3468,7 +3419,7 @@
         <v>4.1454955679442193E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>82</v>
       </c>
@@ -3506,7 +3457,7 @@
         <v>3.3272734568148919E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>87</v>
       </c>
@@ -3544,7 +3495,7 @@
         <v>6.8098832413675406E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>48</v>
       </c>
@@ -3582,7 +3533,7 @@
         <v>1.0130980772097183E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>26</v>
       </c>
@@ -3620,7 +3571,7 @@
         <v>8.2775625220147947E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>88</v>
       </c>
@@ -3658,7 +3609,7 @@
         <v>3.8527872324036249E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>89</v>
       </c>
@@ -3696,7 +3647,7 @@
         <v>8.2771559830572029E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>83</v>
       </c>
@@ -3734,7 +3685,7 @@
         <v>2.1000394373603261E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>61</v>
       </c>
@@ -3772,7 +3723,7 @@
         <v>3.4238772720368588E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>84</v>
       </c>
@@ -3810,7 +3761,7 @@
         <v>3.0413089929640568E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>62</v>
       </c>
@@ -3848,7 +3799,7 @@
         <v>2.6603415792671326E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>56</v>
       </c>
@@ -3886,7 +3837,7 @@
         <v>2.9657371034793275E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>63</v>
       </c>
@@ -3924,7 +3875,7 @@
         <v>6.6708711793658122E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>49</v>
       </c>
@@ -3962,7 +3913,7 @@
         <v>6.0896338675000376E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>64</v>
       </c>
@@ -4000,7 +3951,7 @@
         <v>1.191486472724804E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>75</v>
       </c>
@@ -4038,7 +3989,7 @@
         <v>3.2719934945637441E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>51</v>
       </c>
@@ -4076,7 +4027,7 @@
         <v>5.5125315240922177E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>71</v>
       </c>
@@ -4114,7 +4065,7 @@
         <v>5.0613004640810257E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>78</v>
       </c>
@@ -4152,7 +4103,7 @@
         <v>4.4520651772210536E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>65</v>
       </c>
@@ -4190,7 +4141,7 @@
         <v>5.791785317824219E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>66</v>
       </c>
@@ -4228,7 +4179,7 @@
         <v>2.3981102173848039E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="20" t="s">
         <v>52</v>
       </c>
@@ -4266,3944 +4217,3936 @@
         <v>4.7442257030456169E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B54" s="5">
-        <v>2015</v>
+      <c r="B54" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C54" s="1">
-        <v>0.18548489754262557</v>
+        <v>0.16590703272276888</v>
       </c>
       <c r="D54" s="1">
-        <v>24100</v>
+        <v>26719</v>
       </c>
       <c r="E54" s="1">
-        <v>18884</v>
+        <v>21365</v>
       </c>
       <c r="F54" s="1">
-        <v>1065</v>
+        <v>1092</v>
       </c>
       <c r="G54" s="1">
-        <v>100.497</v>
+        <v>105.06699999999999</v>
       </c>
       <c r="H54" s="1">
-        <v>93.449999999999989</v>
+        <v>96.493666666666641</v>
       </c>
       <c r="I54" s="1">
-        <v>1.6308479902681333E-2</v>
+        <v>2.4988039692787293E-2</v>
       </c>
       <c r="J54" s="1">
-        <v>45.32</v>
+        <v>48.73</v>
       </c>
       <c r="K54" s="1">
-        <v>-5.47</v>
+        <v>0.05</v>
       </c>
       <c r="L54" s="1">
-        <v>3.3681382736073799E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.3180207106222959E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="5">
-        <v>2015</v>
+      <c r="B55" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C55" s="1">
-        <v>0.24083433169117541</v>
+        <v>0.24014144959197922</v>
       </c>
       <c r="D55" s="1">
-        <v>22536</v>
+        <v>25161</v>
       </c>
       <c r="E55" s="1">
-        <v>17635</v>
+        <v>19798</v>
       </c>
       <c r="F55" s="1">
-        <v>1317</v>
+        <v>1516</v>
       </c>
       <c r="G55" s="1">
-        <v>100.91800000000001</v>
+        <v>111.364</v>
       </c>
       <c r="H55" s="1">
-        <v>93.750583333333338</v>
+        <v>96.732749999999996</v>
       </c>
       <c r="I55" s="1">
-        <v>2.1582202499451496E-2</v>
+        <v>2.9328607111412271E-2</v>
       </c>
       <c r="J55" s="1">
-        <v>44.96</v>
+        <v>47.86</v>
       </c>
       <c r="K55" s="1">
-        <v>-0.38</v>
+        <v>11.92</v>
       </c>
       <c r="L55" s="1">
-        <v>4.1093298444729431E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7.9806658512882461E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B56" s="5">
-        <v>2015</v>
+      <c r="B56" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C56" s="1">
-        <v>0.20139721785162526</v>
+        <v>0.17811986465667512</v>
       </c>
       <c r="D56" s="1">
-        <v>22039</v>
+        <v>24714</v>
       </c>
       <c r="E56" s="1">
-        <v>18724</v>
+        <v>21567</v>
       </c>
       <c r="F56" s="1">
-        <v>1060</v>
+        <v>1087</v>
       </c>
       <c r="G56" s="1">
-        <v>101.029</v>
+        <v>113.831</v>
       </c>
       <c r="H56" s="1">
-        <v>93.498333333333335</v>
+        <v>96.672000000000011</v>
       </c>
       <c r="I56" s="1">
-        <v>2.5079469660344748E-2</v>
+        <v>2.8038740237403784E-2</v>
       </c>
       <c r="J56" s="1">
-        <v>44.14</v>
+        <v>48.2</v>
       </c>
       <c r="K56" s="1">
-        <v>8.6199999999999992</v>
+        <v>13.75</v>
       </c>
       <c r="L56" s="1">
-        <v>2.1805134260586331E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.2358812417176532E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="5">
-        <v>2015</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0.24111658940336342</v>
-      </c>
-      <c r="D57" s="1">
-        <v>31957.49993184744</v>
-      </c>
+      <c r="B57" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
       <c r="E57" s="1">
-        <v>35074</v>
+        <v>38711</v>
       </c>
       <c r="F57" s="1">
-        <v>1826</v>
+        <v>1911</v>
       </c>
       <c r="G57" s="1">
-        <v>100.953</v>
+        <v>114.884</v>
       </c>
       <c r="H57" s="1">
-        <v>93.272750000000016</v>
+        <v>96.427666666666667</v>
       </c>
       <c r="I57" s="1">
-        <v>2.9708201502867314E-2</v>
+        <v>3.2858168018779568E-2</v>
       </c>
       <c r="J57" s="1">
-        <v>52.25</v>
+        <v>53.83</v>
       </c>
       <c r="K57" s="1">
-        <v>4.45</v>
+        <v>8.36</v>
       </c>
       <c r="L57" s="1">
-        <v>2.9970832509392921E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.2258170451366507E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B58" s="5">
-        <v>2015</v>
+      <c r="B58" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C58" s="1">
-        <v>0.1947084436454288</v>
+        <v>0.17207450109342873</v>
       </c>
       <c r="D58" s="1">
-        <v>27986</v>
+        <v>29637</v>
       </c>
       <c r="E58" s="1">
-        <v>20497</v>
+        <v>22651</v>
       </c>
       <c r="F58" s="1">
-        <v>1393</v>
+        <v>1348</v>
       </c>
       <c r="G58" s="1">
-        <v>99.712000000000003</v>
+        <v>107.6</v>
       </c>
       <c r="H58" s="1">
-        <v>94.05725000000001</v>
+        <v>97.09608333333334</v>
       </c>
       <c r="I58" s="1">
-        <v>1.7335899218914243E-2</v>
+        <v>2.3994304853711765E-2</v>
       </c>
       <c r="J58" s="1">
-        <v>41.27</v>
+        <v>43.81</v>
       </c>
       <c r="K58" s="1">
-        <v>-8.5500000000000007</v>
+        <v>-3.35</v>
       </c>
       <c r="L58" s="1">
-        <v>2.1384493768722133E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.8915743733977539E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="5">
-        <v>2015</v>
+      <c r="B59" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C59" s="1">
-        <v>0.2047485127576967</v>
+        <v>0.1339612641308231</v>
       </c>
       <c r="D59" s="1">
-        <v>22442</v>
+        <v>24593</v>
       </c>
       <c r="E59" s="1">
-        <v>18220</v>
+        <v>20036</v>
       </c>
       <c r="F59" s="1">
-        <v>1098</v>
+        <v>814</v>
       </c>
       <c r="G59" s="1">
-        <v>100.28</v>
+        <v>108.253</v>
       </c>
       <c r="H59" s="1">
-        <v>92.575166666666675</v>
+        <v>95.743833333333313</v>
       </c>
       <c r="I59" s="1">
-        <v>1.6571168713051386E-2</v>
+        <v>2.5192746911632955E-2</v>
       </c>
       <c r="J59" s="1">
-        <v>41.41</v>
+        <v>45.67</v>
       </c>
       <c r="K59" s="1">
-        <v>-12.31</v>
+        <v>-2.63</v>
       </c>
       <c r="L59" s="1">
-        <v>7.6216462028194636E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.7508485911494152E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="5">
-        <v>2015</v>
+      <c r="B60" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C60" s="1">
-        <v>0.19699528029218857</v>
+        <v>0.16913196342191489</v>
       </c>
       <c r="D60" s="1">
-        <v>21824</v>
+        <v>23780</v>
       </c>
       <c r="E60" s="1">
-        <v>16731</v>
+        <v>18706</v>
       </c>
       <c r="F60" s="1">
-        <v>948</v>
+        <v>917</v>
       </c>
       <c r="G60" s="1">
-        <v>100.09399999999999</v>
+        <v>103.768</v>
       </c>
       <c r="H60" s="1">
-        <v>93.640916666666669</v>
+        <v>96.393583333333325</v>
       </c>
       <c r="I60" s="1">
-        <v>1.6278595663506763E-2</v>
+        <v>2.0951364329899348E-2</v>
       </c>
       <c r="J60" s="1">
-        <v>39.1</v>
+        <v>42.8</v>
       </c>
       <c r="K60" s="1">
-        <v>-4.8</v>
+        <v>-1.99</v>
       </c>
       <c r="L60" s="1">
-        <v>3.2341677223945366E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.0012892237453724E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="5">
-        <v>2015</v>
+      <c r="B61" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C61" s="1">
-        <v>0.2354463060712802</v>
+        <v>0.25381155146733064</v>
       </c>
       <c r="D61" s="1">
-        <v>33620</v>
+        <v>37044</v>
       </c>
       <c r="E61" s="1">
-        <v>27849</v>
+        <v>31073</v>
       </c>
       <c r="F61" s="1">
-        <v>2060</v>
+        <v>2530</v>
       </c>
       <c r="G61" s="1">
-        <v>102.068</v>
+        <v>130.708</v>
       </c>
       <c r="H61" s="1">
-        <v>92.878666666666675</v>
+        <v>96.742583333333343</v>
       </c>
       <c r="I61" s="1">
-        <v>1.7596736521623586E-2</v>
+        <v>2.5963792596290124E-2</v>
       </c>
       <c r="J61" s="1">
-        <v>51.32</v>
+        <v>54.87</v>
       </c>
       <c r="K61" s="1">
-        <v>3.62</v>
+        <v>11.96</v>
       </c>
       <c r="L61" s="1">
-        <v>1.4687028527919112E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.5776605132501983E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B62" s="5">
-        <v>2015</v>
+      <c r="B62" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C62" s="1">
-        <v>0.32386459066795681</v>
+        <v>0.28181269117707597</v>
       </c>
       <c r="D62" s="1">
-        <v>34177</v>
+        <v>36364</v>
       </c>
       <c r="E62" s="1">
-        <v>28852</v>
+        <v>31099</v>
       </c>
       <c r="F62" s="1">
-        <v>2623</v>
+        <v>2511</v>
       </c>
       <c r="G62" s="1">
-        <v>100.953</v>
+        <v>114.884</v>
       </c>
       <c r="H62" s="1">
-        <v>92.763083333333341</v>
+        <v>96.1965</v>
       </c>
       <c r="I62" s="1">
-        <v>2.3290026332397552E-2</v>
+        <v>3.1957294011628112E-2</v>
       </c>
       <c r="J62" s="1">
-        <v>47.79</v>
+        <v>49.77</v>
       </c>
       <c r="K62" s="1">
-        <v>-1.06</v>
+        <v>6.18</v>
       </c>
       <c r="L62" s="1">
-        <v>4.3542033905682141E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.4393734321015146E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="5">
-        <v>2015</v>
+      <c r="B63" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C63" s="1">
-        <v>0.17423568453925525</v>
+        <v>0.15624373947027434</v>
       </c>
       <c r="D63" s="1">
-        <v>28822</v>
+        <v>31240</v>
       </c>
       <c r="E63" s="1">
-        <v>25585</v>
+        <v>29444</v>
       </c>
       <c r="F63" s="1">
-        <v>1200</v>
+        <v>1206</v>
       </c>
       <c r="G63" s="1">
-        <v>100.28</v>
+        <v>108.253</v>
       </c>
       <c r="H63" s="1">
-        <v>93.521749999999997</v>
+        <v>96.61966666666666</v>
       </c>
       <c r="I63" s="1">
-        <v>2.2994379151762903E-2</v>
+        <v>2.945640910745792E-2</v>
       </c>
       <c r="J63" s="1">
-        <v>48.19</v>
+        <v>51.86</v>
       </c>
       <c r="K63" s="1">
-        <v>-7.62</v>
+        <v>1.44</v>
       </c>
       <c r="L63" s="1">
-        <v>3.5631672353448607E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.4755090038367828E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B64" s="5">
-        <v>2015</v>
+      <c r="B64" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C64" s="1">
-        <v>0.19540713025590747</v>
+        <v>0.16897565991116512</v>
       </c>
       <c r="D64" s="1">
-        <v>21514</v>
+        <v>23205</v>
       </c>
       <c r="E64" s="1">
-        <v>17435</v>
+        <v>20499</v>
       </c>
       <c r="F64" s="1">
-        <v>927</v>
+        <v>894</v>
       </c>
       <c r="G64" s="1">
-        <v>100.09399999999999</v>
+        <v>103.768</v>
       </c>
       <c r="H64" s="1">
-        <v>93.496750000000006</v>
+        <v>96.381583333333325</v>
       </c>
       <c r="I64" s="1">
-        <v>1.3343441628288785E-2</v>
+        <v>1.8850554999281188E-2</v>
       </c>
       <c r="J64" s="1">
-        <v>40.270000000000003</v>
+        <v>42.04</v>
       </c>
       <c r="K64" s="1">
-        <v>-6.88</v>
+        <v>-4.1100000000000003</v>
       </c>
       <c r="L64" s="1">
-        <v>4.9622538872219502E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.9761379313823656E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="5">
-        <v>2015</v>
+      <c r="B65" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C65" s="1">
-        <v>0.24366977098544187</v>
+        <v>0.23074304291881728</v>
       </c>
       <c r="D65" s="1">
-        <v>23560</v>
+        <v>25905</v>
       </c>
       <c r="E65" s="1">
-        <v>16255</v>
+        <v>18079</v>
       </c>
       <c r="F65" s="1">
-        <v>1371</v>
+        <v>1476</v>
       </c>
       <c r="G65" s="1">
-        <v>101.029</v>
+        <v>113.831</v>
       </c>
       <c r="H65" s="1">
-        <v>94.540083333333328</v>
+        <v>97.234833333333313</v>
       </c>
       <c r="I65" s="1">
-        <v>1.9269780147127595E-2</v>
+        <v>2.718706658679889E-2</v>
       </c>
       <c r="J65" s="1">
-        <v>36.25</v>
+        <v>39.450000000000003</v>
       </c>
       <c r="K65" s="1">
-        <v>-0.88</v>
+        <v>3.19</v>
       </c>
       <c r="L65" s="1">
-        <v>1.1932750886087379E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.3459813968357505E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B66" s="5">
-        <v>2015</v>
+        <v>57</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C66" s="1">
-        <v>0.1988482220973565</v>
+        <v>0.1708353039522218</v>
       </c>
       <c r="D66" s="1">
-        <v>28197</v>
+        <v>30651</v>
       </c>
       <c r="E66" s="1">
-        <v>21329</v>
+        <v>23818</v>
       </c>
       <c r="F66" s="1">
-        <v>1513</v>
+        <v>1461</v>
       </c>
       <c r="G66" s="1">
-        <v>100.895</v>
+        <v>114.568</v>
       </c>
       <c r="H66" s="1">
-        <v>93.379333333333321</v>
+        <v>96.519916666666674</v>
       </c>
       <c r="I66" s="1">
-        <v>1.8908744162042725E-2</v>
+        <v>2.6877319127447955E-2</v>
       </c>
       <c r="J66" s="1">
-        <v>45.89</v>
+        <v>49.04</v>
       </c>
       <c r="K66" s="1">
-        <v>-4.6100000000000003</v>
+        <v>1.76</v>
       </c>
       <c r="L66" s="1">
-        <v>3.617696465525933E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.3197737445043252E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B67" s="5">
-        <v>2015</v>
+      <c r="B67" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C67" s="1">
-        <v>0.17151570547202077</v>
+        <v>0.15296560788642202</v>
       </c>
       <c r="D67" s="1">
-        <v>25493</v>
+        <v>28557</v>
       </c>
       <c r="E67" s="1">
-        <v>23661</v>
+        <v>27201</v>
       </c>
       <c r="F67" s="1">
-        <v>1061</v>
+        <v>1096</v>
       </c>
       <c r="G67" s="1">
-        <v>100.91800000000001</v>
+        <v>111.364</v>
       </c>
       <c r="H67" s="1">
-        <v>93.562333333333342</v>
+        <v>96.412416666666672</v>
       </c>
       <c r="I67" s="1">
-        <v>2.112387026533202E-2</v>
+        <v>2.6145003102801535E-2</v>
       </c>
       <c r="J67" s="1">
-        <v>46.76</v>
+        <v>49.02</v>
       </c>
       <c r="K67" s="1">
-        <v>-3.81</v>
+        <v>7.93</v>
       </c>
       <c r="L67" s="1">
-        <v>1.5833028521775566E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.4421960207870368E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B68" s="5">
-        <v>2015</v>
+      <c r="B68" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C68" s="1">
-        <v>0.23381344702478485</v>
+        <v>0.22312576115369853</v>
       </c>
       <c r="D68" s="1">
-        <v>35577</v>
+        <v>37090</v>
       </c>
       <c r="E68" s="1">
-        <v>17757</v>
+        <v>18923</v>
       </c>
       <c r="F68" s="1">
-        <v>2057</v>
+        <v>2116</v>
       </c>
       <c r="G68" s="1">
-        <v>101.215</v>
+        <v>125.31100000000001</v>
       </c>
       <c r="H68" s="1">
-        <v>95.411249999999995</v>
+        <v>97.522999999999982</v>
       </c>
       <c r="I68" s="1">
-        <v>1.4419140073341798E-2</v>
+        <v>2.980832472047355E-2</v>
       </c>
       <c r="J68" s="1">
-        <v>42.9</v>
+        <v>42.09</v>
       </c>
       <c r="K68" s="1">
-        <v>-0.04</v>
+        <v>-6.9</v>
       </c>
       <c r="L68" s="1">
-        <v>2.3972562097243156E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.9932349901343608E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="5">
-        <v>2015</v>
+      <c r="B69" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C69" s="1">
-        <v>0.15504751676857023</v>
+        <v>0.1300058418773514</v>
       </c>
       <c r="D69" s="1">
-        <v>23119</v>
+        <v>25698</v>
       </c>
       <c r="E69" s="1">
-        <v>19744</v>
+        <v>21974</v>
       </c>
       <c r="F69" s="1">
-        <v>854</v>
+        <v>823</v>
       </c>
       <c r="G69" s="1">
-        <v>100.497</v>
+        <v>105.06699999999999</v>
       </c>
       <c r="H69" s="1">
-        <v>93.513166666666677</v>
+        <v>96.485000000000014</v>
       </c>
       <c r="I69" s="1">
-        <v>1.3100700196413172E-2</v>
+        <v>1.6515728310959727E-2</v>
       </c>
       <c r="J69" s="1">
-        <v>39.1</v>
+        <v>45.73</v>
       </c>
       <c r="K69" s="1">
-        <v>-10.81</v>
+        <v>-1.76</v>
       </c>
       <c r="L69" s="1">
-        <v>3.836772672679103E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.6846323382087758E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="5">
-        <v>2015</v>
+      <c r="B70" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C70" s="1">
-        <v>0.21761273273389095</v>
+        <v>0.19457815349059854</v>
       </c>
       <c r="D70" s="1">
-        <v>22879</v>
+        <v>25246</v>
       </c>
       <c r="E70" s="1">
-        <v>16862</v>
+        <v>18275</v>
       </c>
       <c r="F70" s="1">
-        <v>1189</v>
+        <v>1213</v>
       </c>
       <c r="G70" s="1">
-        <v>101.029</v>
+        <v>113.831</v>
       </c>
       <c r="H70" s="1">
-        <v>93.32074999999999</v>
+        <v>96.371499999999983</v>
       </c>
       <c r="I70" s="1">
-        <v>1.8099297269645594E-2</v>
+        <v>2.409327084712954E-2</v>
       </c>
       <c r="J70" s="1">
-        <v>40.11</v>
+        <v>43.26</v>
       </c>
       <c r="K70" s="1">
-        <v>-4.5599999999999996</v>
+        <v>-0.2</v>
       </c>
       <c r="L70" s="1">
-        <v>2.1882553157259012E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.2400794661504761E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B71" s="5">
-        <v>2015</v>
+      <c r="B71" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C71" s="1">
-        <v>0.21329974939179999</v>
+        <v>0.17686611860949675</v>
       </c>
       <c r="D71" s="1">
-        <v>27947</v>
+        <v>30546</v>
       </c>
       <c r="E71" s="1">
-        <v>21843</v>
+        <v>24319</v>
       </c>
       <c r="F71" s="1">
-        <v>1415</v>
+        <v>1326</v>
       </c>
       <c r="G71" s="1">
-        <v>99.953999999999994</v>
+        <v>109.235</v>
       </c>
       <c r="H71" s="1">
-        <v>93.28133333333335</v>
+        <v>96.474166666666648</v>
       </c>
       <c r="I71" s="1">
-        <v>1.8884914424820529E-2</v>
+        <v>1.9550614597208561E-2</v>
       </c>
       <c r="J71" s="1">
-        <v>45.85</v>
+        <v>48.68</v>
       </c>
       <c r="K71" s="1">
-        <v>-4.07</v>
+        <v>1.39</v>
       </c>
       <c r="L71" s="1">
-        <v>2.712039432361364E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.7670953972435813E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="5">
-        <v>2015</v>
+      <c r="B72" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C72" s="1">
-        <v>0.14624744245237567</v>
+        <v>0.13174933738796479</v>
       </c>
       <c r="D72" s="1">
-        <v>22415</v>
+        <v>25019</v>
       </c>
       <c r="E72" s="1">
-        <v>20663</v>
+        <v>23222</v>
       </c>
       <c r="F72" s="1">
-        <v>781</v>
+        <v>812</v>
       </c>
       <c r="G72" s="1">
-        <v>100.497</v>
+        <v>105.06699999999999</v>
       </c>
       <c r="H72" s="1">
-        <v>93.033666666666662</v>
+        <v>96.212666666666678</v>
       </c>
       <c r="I72" s="1">
-        <v>1.301995182519709E-2</v>
+        <v>2.1812982324487126E-2</v>
       </c>
       <c r="J72" s="1">
-        <v>43.77</v>
+        <v>49.48</v>
       </c>
       <c r="K72" s="1">
-        <v>-13.73</v>
+        <v>-0.41</v>
       </c>
       <c r="L72" s="1">
-        <v>7.1182931794879344E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5583149952845015E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B73" s="5">
-        <v>2015</v>
+      <c r="B73" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C73" s="1">
-        <v>0.35024241918270838</v>
+        <v>0.31107951363558195</v>
       </c>
       <c r="D73" s="1">
-        <v>34627.180851832949</v>
+        <v>37797</v>
       </c>
       <c r="E73" s="1">
-        <v>29424</v>
+        <v>32913</v>
       </c>
       <c r="F73" s="1">
-        <v>2874</v>
+        <v>2881</v>
       </c>
       <c r="G73" s="1">
-        <v>100.953</v>
+        <v>114.884</v>
       </c>
       <c r="H73" s="1">
-        <v>92.767916666666679</v>
+        <v>96.143749999999997</v>
       </c>
       <c r="I73" s="1">
-        <v>2.5894419070523998E-2</v>
+        <v>3.0581799409374513E-2</v>
       </c>
       <c r="J73" s="1">
-        <v>50.85</v>
+        <v>51.52</v>
       </c>
       <c r="K73" s="1">
-        <v>2.11</v>
+        <v>6.56</v>
       </c>
       <c r="L73" s="1">
-        <v>5.8046911837329141E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+        <v>6.0117236938517218E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="5">
-        <v>2015</v>
+      <c r="B74" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C74" s="1">
-        <v>0.22706007530477679</v>
+        <v>0.22223467282192563</v>
       </c>
       <c r="D74" s="1">
-        <v>29514</v>
+        <v>32943</v>
       </c>
       <c r="E74" s="1">
-        <v>26721</v>
+        <v>27864</v>
       </c>
       <c r="F74" s="1">
-        <v>1744</v>
+        <v>1970</v>
       </c>
       <c r="G74" s="1">
-        <v>102.068</v>
+        <v>130.708</v>
       </c>
       <c r="H74" s="1">
-        <v>92.893583333333353</v>
+        <v>96.915666666666667</v>
       </c>
       <c r="I74" s="1">
-        <v>2.494641818515007E-2</v>
+        <v>2.9748788301548534E-2</v>
       </c>
       <c r="J74" s="1">
-        <v>50.07</v>
+        <v>55.47</v>
       </c>
       <c r="K74" s="1">
-        <v>3.18</v>
+        <v>14.57</v>
       </c>
       <c r="L74" s="1">
-        <v>2.9904893938548895E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.2193840253980921E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B75" s="5">
-        <v>2015</v>
+      <c r="B75" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C75" s="1">
-        <v>0.20884005012886972</v>
+        <v>0.18986616780664581</v>
       </c>
       <c r="D75" s="1">
-        <v>23018</v>
+        <v>25190</v>
       </c>
       <c r="E75" s="1">
-        <v>17320</v>
+        <v>18353</v>
       </c>
       <c r="F75" s="1">
-        <v>1148</v>
+        <v>1181</v>
       </c>
       <c r="G75" s="1">
-        <v>101.029</v>
+        <v>113.831</v>
       </c>
       <c r="H75" s="1">
-        <v>93.655416666666667</v>
+        <v>96.882333333333307</v>
       </c>
       <c r="I75" s="1">
-        <v>1.8979676157231517E-2</v>
+        <v>2.8566729709727817E-2</v>
       </c>
       <c r="J75" s="1">
-        <v>41.44</v>
+        <v>43.42</v>
       </c>
       <c r="K75" s="1">
-        <v>-2.0099999999999998</v>
+        <v>5.54</v>
       </c>
       <c r="L75" s="1">
-        <v>2.5738664794499491E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.4263355535454867E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B76" s="5">
-        <v>2015</v>
+      <c r="B76" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C76" s="1">
-        <v>0.14591679285207099</v>
+        <v>0.13673702000232646</v>
       </c>
       <c r="D76" s="1">
-        <v>28449</v>
+        <v>31083</v>
       </c>
       <c r="E76" s="1">
-        <v>17794</v>
+        <v>20914</v>
       </c>
       <c r="F76" s="1">
-        <v>989</v>
+        <v>1047</v>
       </c>
       <c r="G76" s="1">
-        <v>100.497</v>
+        <v>105.06699999999999</v>
       </c>
       <c r="H76" s="1">
-        <v>93.624749999999992</v>
+        <v>96.766749999999988</v>
       </c>
       <c r="I76" s="1">
-        <v>2.1152132951759262E-2</v>
+        <v>3.579517750129764E-2</v>
       </c>
       <c r="J76" s="1">
-        <v>53.79</v>
+        <v>59.92</v>
       </c>
       <c r="K76" s="1">
-        <v>-1.05</v>
+        <v>14.26</v>
       </c>
       <c r="L76" s="1">
-        <v>5.4437375338016285E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.3293958507007249E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B77" s="5">
-        <v>2015</v>
+      <c r="B77" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C77" s="1">
-        <v>0.2203479403504621</v>
+        <v>0.1977879275581689</v>
       </c>
       <c r="D77" s="1">
-        <v>22595</v>
+        <v>25082</v>
       </c>
       <c r="E77" s="1">
-        <v>17177</v>
+        <v>20380</v>
       </c>
       <c r="F77" s="1">
-        <v>1189</v>
+        <v>1225</v>
       </c>
       <c r="G77" s="1">
-        <v>101.029</v>
+        <v>113.831</v>
       </c>
       <c r="H77" s="1">
-        <v>93.797666666666672</v>
+        <v>96.759166666666658</v>
       </c>
       <c r="I77" s="1">
-        <v>2.2995402073393754E-2</v>
+        <v>2.8024818630128557E-2</v>
       </c>
       <c r="J77" s="1">
-        <v>38.700000000000003</v>
+        <v>42.13</v>
       </c>
       <c r="K77" s="1">
-        <v>-1.45</v>
+        <v>6.1</v>
       </c>
       <c r="L77" s="1">
-        <v>3.0902835868827365E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.8830693244501202E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B78" s="5">
-        <v>2015</v>
+      <c r="B78" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C78" s="1">
-        <v>0.18918656911650006</v>
+        <v>0.16926600034138989</v>
       </c>
       <c r="D78" s="1">
-        <v>28357</v>
+        <v>31084</v>
       </c>
       <c r="E78" s="1">
-        <v>25867</v>
+        <v>28749</v>
       </c>
       <c r="F78" s="1">
-        <v>1350</v>
+        <v>1369</v>
       </c>
       <c r="G78" s="1">
-        <v>99.885999999999996</v>
+        <v>111.958</v>
       </c>
       <c r="H78" s="1">
-        <v>93.358916666666673</v>
+        <v>96.730916666666658</v>
       </c>
       <c r="I78" s="1">
-        <v>2.357912870274417E-2</v>
+        <v>3.3481501743828218E-2</v>
       </c>
       <c r="J78" s="1">
-        <v>50.75</v>
+        <v>51.89</v>
       </c>
       <c r="K78" s="1">
-        <v>-5.33</v>
+        <v>7.99</v>
       </c>
       <c r="L78" s="1">
-        <v>3.7818123090588534E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.3356356424810233E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B79" s="5">
-        <v>2015</v>
+      <c r="B79" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C79" s="1">
-        <v>0.26503507968481138</v>
+        <v>0.32170334550877761</v>
       </c>
       <c r="D79" s="1">
-        <v>30921</v>
+        <v>35728</v>
       </c>
       <c r="E79" s="1">
-        <v>25732</v>
+        <v>28906</v>
       </c>
       <c r="F79" s="1">
-        <v>1977</v>
+        <v>2867</v>
       </c>
       <c r="G79" s="1">
-        <v>102.261</v>
+        <v>126.178</v>
       </c>
       <c r="H79" s="1">
-        <v>93.342583333333337</v>
+        <v>96.614333333333335</v>
       </c>
       <c r="I79" s="1">
-        <v>2.7650140926174242E-2</v>
+        <v>3.6753216382557304E-2</v>
       </c>
       <c r="J79" s="1">
-        <v>53.39</v>
+        <v>56.02</v>
       </c>
       <c r="K79" s="1">
-        <v>2.11</v>
+        <v>16.2</v>
       </c>
       <c r="L79" s="1">
-        <v>3.4613605147766503E-3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.9427482133176485E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B80" s="5">
-        <v>2015</v>
+      <c r="B80" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C80" s="1">
-        <v>0.17718751144388575</v>
+        <v>0.14834475493740312</v>
       </c>
       <c r="D80" s="1">
-        <v>21789</v>
+        <v>24160</v>
       </c>
       <c r="E80" s="1">
-        <v>17128</v>
+        <v>18320</v>
       </c>
       <c r="F80" s="1">
-        <v>922</v>
+        <v>885</v>
       </c>
       <c r="G80" s="1">
-        <v>101.029</v>
+        <v>113.831</v>
       </c>
       <c r="H80" s="1">
-        <v>93.805666666666681</v>
+        <v>96.73599999999999</v>
       </c>
       <c r="I80" s="1">
-        <v>1.4314321965238394E-2</v>
+        <v>2.0698982446297517E-2</v>
       </c>
       <c r="J80" s="1">
-        <v>38.729999999999997</v>
+        <v>41.35</v>
       </c>
       <c r="K80" s="1">
-        <v>-8.18</v>
+        <v>-4.51</v>
       </c>
       <c r="L80" s="1">
-        <v>3.3248238225537705E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.4087171426377414E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B81" s="5">
-        <v>2015</v>
+      <c r="B81" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C81" s="1">
-        <v>0.17223281884402536</v>
+        <v>0.16116233546001288</v>
       </c>
       <c r="D81" s="1">
-        <v>27471</v>
+        <v>30286</v>
       </c>
       <c r="E81" s="1">
-        <v>25594</v>
+        <v>27470</v>
       </c>
       <c r="F81" s="1">
-        <v>1125</v>
+        <v>1200</v>
       </c>
       <c r="G81" s="1">
-        <v>101.19799999999999</v>
+        <v>110.98699999999999</v>
       </c>
       <c r="H81" s="1">
-        <v>93.61633333333333</v>
+        <v>96.543000000000006</v>
       </c>
       <c r="I81" s="1">
-        <v>2.4055914941665906E-2</v>
+        <v>3.1383543201077058E-2</v>
       </c>
       <c r="J81" s="1">
-        <v>51.08</v>
+        <v>53.2</v>
       </c>
       <c r="K81" s="1">
-        <v>-1.38</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="L81" s="1">
-        <v>3.8100885340936687E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+        <v>5.0399936643700004E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B82" s="5">
-        <v>2015</v>
+      <c r="B82" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C82" s="1">
-        <v>0.19425415013859498</v>
+        <v>0.23959612614049391</v>
       </c>
       <c r="D82" s="1">
-        <v>26520</v>
+        <v>29899</v>
       </c>
       <c r="E82" s="1">
-        <v>18321</v>
+        <v>20595</v>
       </c>
       <c r="F82" s="1">
-        <v>1343</v>
+        <v>1931</v>
       </c>
       <c r="G82" s="1">
-        <v>100.637</v>
+        <v>114.839</v>
       </c>
       <c r="H82" s="1">
-        <v>94.501666666666665</v>
+        <v>97.208083333333335</v>
       </c>
       <c r="I82" s="1">
-        <v>2.6849816916513565E-2</v>
+        <v>2.8375143687876123E-2</v>
       </c>
       <c r="J82" s="1">
-        <v>44.38</v>
+        <v>48.62</v>
       </c>
       <c r="K82" s="1">
-        <v>2.11</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="L82" s="1">
-        <v>7.1376157814141586E-4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.4605449996619108E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B83" s="5">
-        <v>2015</v>
+      <c r="B83" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C83" s="1">
-        <v>0.16216876973233904</v>
+        <v>0.14493379746733046</v>
       </c>
       <c r="D83" s="1">
-        <v>26141</v>
+        <v>28009</v>
       </c>
       <c r="E83" s="1">
-        <v>19456</v>
+        <v>21175</v>
       </c>
       <c r="F83" s="1">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="G83" s="1">
-        <v>100.28</v>
+        <v>108.253</v>
       </c>
       <c r="H83" s="1">
-        <v>92.405166666666673</v>
+        <v>96.049166666666665</v>
       </c>
       <c r="I83" s="1">
-        <v>1.4155341628510936E-2</v>
+        <v>2.038400331215795E-2</v>
       </c>
       <c r="J83" s="1">
-        <v>39.39</v>
+        <v>45.12</v>
       </c>
       <c r="K83" s="1">
-        <v>-11.62</v>
+        <v>-7.75</v>
       </c>
       <c r="L83" s="1">
-        <v>3.5315345383243463E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.552574038374455E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B84" s="5">
-        <v>2015</v>
+      <c r="B84" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C84" s="1">
-        <v>0.13257306650157186</v>
+        <v>0.12858333257029597</v>
       </c>
       <c r="D84" s="1">
-        <v>28202</v>
+        <v>31474</v>
       </c>
       <c r="E84" s="1">
-        <v>29091</v>
+        <v>28290</v>
       </c>
       <c r="F84" s="1">
-        <v>973</v>
+        <v>1089</v>
       </c>
       <c r="G84" s="1">
-        <v>102.068</v>
+        <v>130.708</v>
       </c>
       <c r="H84" s="1">
-        <v>92.161833333333334</v>
+        <v>95.991499999999988</v>
       </c>
       <c r="I84" s="1">
-        <v>1.7216744757802806E-2</v>
+        <v>2.2787652529882227E-2</v>
       </c>
       <c r="J84" s="1">
-        <v>54.21</v>
+        <v>54.96</v>
       </c>
       <c r="K84" s="1">
-        <v>-2.88</v>
+        <v>10.57</v>
       </c>
       <c r="L84" s="1">
-        <v>1.8760220077104963E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.1091977655902749E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B85" s="5">
-        <v>2015</v>
+      <c r="B85" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C85" s="1">
-        <v>0.186776962888756</v>
+        <v>0.16326290151943831</v>
       </c>
       <c r="D85" s="1">
-        <v>24946</v>
+        <v>26977</v>
       </c>
       <c r="E85" s="1">
-        <v>22265</v>
+        <v>23579</v>
       </c>
       <c r="F85" s="1">
-        <v>1106</v>
+        <v>1081</v>
       </c>
       <c r="G85" s="1">
-        <v>99.953999999999994</v>
+        <v>109.235</v>
       </c>
       <c r="H85" s="1">
-        <v>93.348583333333337</v>
+        <v>96.717583333333337</v>
       </c>
       <c r="I85" s="1">
-        <v>1.628529167378737E-2</v>
+        <v>1.8969175467136695E-2</v>
       </c>
       <c r="J85" s="1">
-        <v>44.86</v>
+        <v>47.24</v>
       </c>
       <c r="K85" s="1">
-        <v>-7.95</v>
+        <v>-4.5599999999999996</v>
       </c>
       <c r="L85" s="1">
-        <v>2.33362601875151E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.1519526027157462E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B86" s="5">
-        <v>2015</v>
+      <c r="B86" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C86" s="1">
-        <v>0.21961658181146193</v>
+        <v>0.23848771655809259</v>
       </c>
       <c r="D86" s="1">
-        <v>37225</v>
+        <v>40929</v>
       </c>
       <c r="E86" s="1">
-        <v>32275</v>
+        <v>35601</v>
       </c>
       <c r="F86" s="1">
-        <v>2153</v>
+        <v>2658</v>
       </c>
       <c r="G86" s="1">
-        <v>102.077</v>
+        <v>136.465</v>
       </c>
       <c r="H86" s="1">
-        <v>93.721333333333348</v>
+        <v>96.754583333333343</v>
       </c>
       <c r="I86" s="1">
-        <v>2.4502423180005083E-2</v>
+        <v>3.4387090820891635E-2</v>
       </c>
       <c r="J86" s="1">
-        <v>54.06</v>
+        <v>55.68</v>
       </c>
       <c r="K86" s="1">
-        <v>5.59</v>
+        <v>15.35</v>
       </c>
       <c r="L86" s="1">
-        <v>2.200715986152547E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.175079077037536E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B87" s="5">
-        <v>2015</v>
+      <c r="B87" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C87" s="1">
-        <v>0.2990706889292748</v>
+        <v>0.3154240514789553</v>
       </c>
       <c r="D87" s="1">
-        <v>23102</v>
+        <v>26076</v>
       </c>
       <c r="E87" s="1">
-        <v>17077</v>
+        <v>18922</v>
       </c>
       <c r="F87" s="1">
-        <v>1650</v>
+        <v>2031</v>
       </c>
       <c r="G87" s="1">
-        <v>101.029</v>
+        <v>113.831</v>
       </c>
       <c r="H87" s="1">
-        <v>92.478583333333304</v>
+        <v>96.139166666666654</v>
       </c>
       <c r="I87" s="1">
-        <v>2.7255823147467759E-2</v>
+        <v>3.9511407141825619E-2</v>
       </c>
       <c r="J87" s="1">
-        <v>43.02</v>
+        <v>47.38</v>
       </c>
       <c r="K87" s="1">
-        <v>5.64</v>
+        <v>13.79</v>
       </c>
       <c r="L87" s="1">
-        <v>1.8342845461526986E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.8991640470142056E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B88" s="5">
-        <v>2015</v>
+      <c r="B88" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C88" s="1">
-        <v>0.19911765564080455</v>
+        <v>0.18175438385696052</v>
       </c>
       <c r="D88" s="1">
-        <v>35196</v>
+        <v>37829</v>
       </c>
       <c r="E88" s="1">
-        <v>16506</v>
+        <v>17531</v>
       </c>
       <c r="F88" s="1">
-        <v>1733</v>
+        <v>1758</v>
       </c>
       <c r="G88" s="1">
-        <v>102.202</v>
+        <v>122.196</v>
       </c>
       <c r="H88" s="1">
-        <v>93.655749999999998</v>
+        <v>96.48233333333333</v>
       </c>
       <c r="I88" s="1">
-        <v>1.9770050476724622E-2</v>
+        <v>3.3964623078347841E-2</v>
       </c>
       <c r="J88" s="1">
-        <v>37.57</v>
+        <v>47.23</v>
       </c>
       <c r="K88" s="1">
-        <v>5.25</v>
+        <v>2.14</v>
       </c>
       <c r="L88" s="1">
-        <v>8.3894185829126947E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+        <v>6.3900722355991852E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="5">
-        <v>2015</v>
+      <c r="B89" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C89" s="1">
-        <v>0.1669378291433963</v>
+        <v>0.14523825484790881</v>
       </c>
       <c r="D89" s="1">
-        <v>25819</v>
+        <v>28531</v>
       </c>
       <c r="E89" s="1">
-        <v>19901</v>
+        <v>21393</v>
       </c>
       <c r="F89" s="1">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="G89" s="1">
-        <v>100.35899999999999</v>
+        <v>107.538</v>
       </c>
       <c r="H89" s="1">
-        <v>94.355833333333351</v>
+        <v>96.950833333333321</v>
       </c>
       <c r="I89" s="1">
-        <v>1.9109404561340377E-2</v>
+        <v>2.2118228566752045E-2</v>
       </c>
       <c r="J89" s="1">
-        <v>45.36</v>
+        <v>50.14</v>
       </c>
       <c r="K89" s="1">
-        <v>2.16</v>
+        <v>11.85</v>
       </c>
       <c r="L89" s="1">
-        <v>1.899422608240509E-3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.5231560984748824E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B90" s="5">
-        <v>2015</v>
+        <v>89</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1">
-        <v>28761</v>
+        <v>31190</v>
       </c>
       <c r="F90" s="1">
-        <v>1384</v>
+        <v>1405</v>
       </c>
       <c r="G90" s="1">
-        <v>100.08199999999999</v>
+        <v>108.393</v>
       </c>
       <c r="H90" s="1">
-        <v>93.063583333333341</v>
+        <v>96.168333333333337</v>
       </c>
       <c r="I90" s="1">
-        <v>2.3896289634584279E-2</v>
+        <v>2.7657925053354623E-2</v>
       </c>
       <c r="J90" s="1">
-        <v>50.73</v>
+        <v>53.4</v>
       </c>
       <c r="K90" s="1">
-        <v>2.52</v>
+        <v>10.84</v>
       </c>
       <c r="L90" s="1">
-        <v>3.2007444463180508E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.0274633466861453E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B91" s="5">
-        <v>2015</v>
+      <c r="B91" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C91" s="1">
-        <v>0.22297447898337039</v>
+        <v>0.18479205172174443</v>
       </c>
       <c r="D91" s="1">
-        <v>23787</v>
+        <v>25642</v>
       </c>
       <c r="E91" s="1">
-        <v>19284</v>
+        <v>22030</v>
       </c>
       <c r="F91" s="1">
-        <v>1259</v>
+        <v>1163</v>
       </c>
       <c r="G91" s="1">
-        <v>99.953999999999994</v>
+        <v>109.235</v>
       </c>
       <c r="H91" s="1">
-        <v>93.649833333333319</v>
+        <v>96.596666666666678</v>
       </c>
       <c r="I91" s="1">
-        <v>1.2016671325508573E-2</v>
+        <v>1.6738173835166008E-2</v>
       </c>
       <c r="J91" s="1">
-        <v>38.36</v>
+        <v>41.46</v>
       </c>
       <c r="K91" s="1">
-        <v>-12.07</v>
+        <v>-3.06</v>
       </c>
       <c r="L91" s="1">
-        <v>2.8612617818971012E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.1015671224373007E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B92" s="5">
-        <v>2015</v>
+      <c r="B92" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C92" s="1">
-        <v>0.18506295018195915</v>
+        <v>0.1665248730715399</v>
       </c>
       <c r="D92" s="1">
-        <v>26887</v>
+        <v>28971</v>
       </c>
       <c r="E92" s="1">
-        <v>23857</v>
+        <v>27101</v>
       </c>
       <c r="F92" s="1">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="G92" s="1">
-        <v>100.28</v>
+        <v>108.253</v>
       </c>
       <c r="H92" s="1">
-        <v>93.700583333333341</v>
+        <v>96.765833333333333</v>
       </c>
       <c r="I92" s="1">
-        <v>1.8351552383533594E-2</v>
+        <v>2.4241676181071991E-2</v>
       </c>
       <c r="J92" s="1">
-        <v>45.02</v>
+        <v>44.7</v>
       </c>
       <c r="K92" s="1">
-        <v>-8.48</v>
+        <v>-4.33</v>
       </c>
       <c r="L92" s="1">
-        <v>5.8240732375703921E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.9625389576326101E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B93" s="5">
-        <v>2015</v>
+      <c r="B93" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C93" s="1">
-        <v>0.23605504181939335</v>
+        <v>0.20938795402567972</v>
       </c>
       <c r="D93" s="1">
-        <v>26877</v>
+        <v>29129</v>
       </c>
       <c r="E93" s="1">
-        <v>19932</v>
+        <v>22157</v>
       </c>
       <c r="F93" s="1">
-        <v>1506</v>
+        <v>1497</v>
       </c>
       <c r="G93" s="1">
-        <v>99.953999999999994</v>
+        <v>109.235</v>
       </c>
       <c r="H93" s="1">
-        <v>92.76</v>
+        <v>96.134416666666667</v>
       </c>
       <c r="I93" s="1">
-        <v>1.594196167511458E-2</v>
+        <v>1.9141575667996076E-2</v>
       </c>
       <c r="J93" s="1">
-        <v>43.01</v>
+        <v>45.63</v>
       </c>
       <c r="K93" s="1">
-        <v>-2.78</v>
+        <v>3.46</v>
       </c>
       <c r="L93" s="1">
-        <v>2.2662644319983447E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.529032504682662E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B94" s="5">
-        <v>2015</v>
+      <c r="B94" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C94" s="1">
-        <v>0.22747028913737483</v>
+        <v>0.20574707039857462</v>
       </c>
       <c r="D94" s="1">
-        <v>25002</v>
+        <v>26989</v>
       </c>
       <c r="E94" s="1">
-        <v>18417</v>
+        <v>20735</v>
       </c>
       <c r="F94" s="1">
-        <v>1359</v>
+        <v>1372</v>
       </c>
       <c r="G94" s="1">
-        <v>100.28</v>
+        <v>108.253</v>
       </c>
       <c r="H94" s="1">
-        <v>93.4345</v>
+        <v>96.468166666666676</v>
       </c>
       <c r="I94" s="1">
-        <v>2.0286097320231587E-2</v>
+        <v>2.3899382453472832E-2</v>
       </c>
       <c r="J94" s="1">
-        <v>46.07</v>
+        <v>46.35</v>
       </c>
       <c r="K94" s="1">
-        <v>-9.7899999999999991</v>
+        <v>-3.65</v>
       </c>
       <c r="L94" s="1">
-        <v>4.1632905611455676E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.5582777481122144E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B95" s="5">
-        <v>2015</v>
+      <c r="B95" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C95" s="1">
-        <v>0.19584233497948167</v>
+        <v>0.22539905561685333</v>
       </c>
       <c r="D95" s="1">
-        <v>24738</v>
+        <v>27865</v>
       </c>
       <c r="E95" s="1">
-        <v>19494</v>
+        <v>21134</v>
       </c>
       <c r="F95" s="1">
-        <v>1263</v>
+        <v>1693</v>
       </c>
       <c r="G95" s="1">
-        <v>100.637</v>
+        <v>114.839</v>
       </c>
       <c r="H95" s="1">
-        <v>93.514583333333334</v>
+        <v>96.721749999999986</v>
       </c>
       <c r="I95" s="1">
-        <v>1.8764347739295337E-2</v>
+        <v>2.6723350777115591E-2</v>
       </c>
       <c r="J95" s="1">
-        <v>46.26</v>
+        <v>48.94</v>
       </c>
       <c r="K95" s="1">
-        <v>-0.2</v>
+        <v>12.93</v>
       </c>
       <c r="L95" s="1">
-        <v>1.3035233057191336E-3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.829623665943388E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B96" s="5">
-        <v>2015</v>
+      <c r="B96" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C96" s="1">
-        <v>0.17419830713907863</v>
+        <v>0.15768375075699412</v>
       </c>
       <c r="D96" s="1">
-        <v>26594</v>
+        <v>29158</v>
       </c>
       <c r="E96" s="1">
-        <v>21609</v>
+        <v>22012</v>
       </c>
       <c r="F96" s="1">
-        <v>1107</v>
+        <v>1136</v>
       </c>
       <c r="G96" s="1">
-        <v>100.28</v>
+        <v>108.253</v>
       </c>
       <c r="H96" s="1">
-        <v>92.625499999999988</v>
+        <v>96.091333333333338</v>
       </c>
       <c r="I96" s="1">
-        <v>2.4027416386367965E-2</v>
+        <v>2.8583167038384788E-2</v>
       </c>
       <c r="J96" s="1">
-        <v>49.57</v>
+        <v>51.5</v>
       </c>
       <c r="K96" s="1">
-        <v>-10.130000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="L96" s="1">
-        <v>7.3300755219902263E-3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+        <v>5.7257633264206804E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B97" s="5">
-        <v>2015</v>
+      <c r="B97" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C97" s="1">
-        <v>0.23006329422114416</v>
+        <v>0.20796496789038912</v>
       </c>
       <c r="D97" s="1">
-        <v>25099</v>
+        <v>27535</v>
       </c>
       <c r="E97" s="1">
-        <v>18594</v>
+        <v>20429</v>
       </c>
       <c r="F97" s="1">
-        <v>1379</v>
+        <v>1414</v>
       </c>
       <c r="G97" s="1">
-        <v>101.029</v>
+        <v>113.831</v>
       </c>
       <c r="H97" s="1">
-        <v>93.765916666666669</v>
+        <v>96.824666666666687</v>
       </c>
       <c r="I97" s="1">
-        <v>1.8409666852092218E-2</v>
+        <v>2.4017893825774388E-2</v>
       </c>
       <c r="J97" s="1">
-        <v>42.69</v>
+        <v>46.95</v>
       </c>
       <c r="K97" s="1">
-        <v>0.24</v>
+        <v>3.43</v>
       </c>
       <c r="L97" s="1">
-        <v>1.983538331582092E-3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.3671481895594947E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B98" s="5">
-        <v>2015</v>
+      <c r="B98" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C98" s="1">
-        <v>0.16103090576879181</v>
+        <v>0.13910027619038232</v>
       </c>
       <c r="D98" s="1">
-        <v>27859</v>
+        <v>30202</v>
       </c>
       <c r="E98" s="1">
-        <v>23763</v>
+        <v>28019</v>
       </c>
       <c r="F98" s="1">
-        <v>1072</v>
+        <v>1038</v>
       </c>
       <c r="G98" s="1">
-        <v>100.28</v>
+        <v>108.253</v>
       </c>
       <c r="H98" s="1">
-        <v>92.48233333333333</v>
+        <v>96.09708333333333</v>
       </c>
       <c r="I98" s="1">
-        <v>2.0592048875898293E-2</v>
+        <v>3.0711060948081265E-2</v>
       </c>
       <c r="J98" s="1">
-        <v>47.41</v>
+        <v>54.17</v>
       </c>
       <c r="K98" s="1">
-        <v>-10.95</v>
+        <v>3.3</v>
       </c>
       <c r="L98" s="1">
-        <v>1.0911368481199042E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.2799097065462754E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B99" s="5">
-        <v>2015</v>
+      <c r="B99" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C99" s="1">
-        <v>0.16926198314787222</v>
+        <v>0.16028810228743817</v>
       </c>
       <c r="D99" s="1">
-        <v>28105</v>
+        <v>30952</v>
       </c>
       <c r="E99" s="1">
-        <v>27832</v>
+        <v>30427</v>
       </c>
       <c r="F99" s="1">
-        <v>1238</v>
+        <v>1335</v>
       </c>
       <c r="G99" s="1">
-        <v>102.068</v>
+        <v>130.708</v>
       </c>
       <c r="H99" s="1">
-        <v>93.565749999999994</v>
+        <v>97.07774999999998</v>
       </c>
       <c r="I99" s="1">
-        <v>2.0599898629230753E-2</v>
+        <v>2.7047299793190618E-2</v>
       </c>
       <c r="J99" s="1">
-        <v>48.24</v>
+        <v>50.04</v>
       </c>
       <c r="K99" s="1">
-        <v>-1.4</v>
+        <v>15.11</v>
       </c>
       <c r="L99" s="1">
-        <v>1.7771327164724984E-3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.0065284419438574E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B100" s="5">
-        <v>2015</v>
+      <c r="B100" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C100" s="1">
-        <v>0.13130172547918134</v>
+        <v>0.11525407613275165</v>
       </c>
       <c r="D100" s="1">
-        <v>27027</v>
+        <v>29278</v>
       </c>
       <c r="E100" s="1">
-        <v>24012</v>
+        <v>25241</v>
       </c>
       <c r="F100" s="1">
-        <v>893</v>
+        <v>878</v>
       </c>
       <c r="G100" s="1">
-        <v>99.885999999999996</v>
+        <v>111.958</v>
       </c>
       <c r="H100" s="1">
-        <v>93.596333333333305</v>
+        <v>96.762249999999995</v>
       </c>
       <c r="I100" s="1">
-        <v>1.8563038032994559E-2</v>
+        <v>2.7739797283238714E-2</v>
       </c>
       <c r="J100" s="1">
-        <v>49.73</v>
+        <v>51.43</v>
       </c>
       <c r="K100" s="1">
-        <v>-10.91</v>
+        <v>0.45</v>
       </c>
       <c r="L100" s="1">
-        <v>6.6795266749201049E-3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+        <v>5.6029486074369115E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B101" s="5">
-        <v>2015</v>
+      <c r="B101" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C101" s="1">
-        <v>0.13881109149017085</v>
+        <v>0.11968723335281253</v>
       </c>
       <c r="D101" s="1">
-        <v>23767</v>
+        <v>26489</v>
       </c>
       <c r="E101" s="1">
-        <v>16982</v>
+        <v>18940</v>
       </c>
       <c r="F101" s="1">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="G101" s="1">
-        <v>100.497</v>
+        <v>105.06699999999999</v>
       </c>
       <c r="H101" s="1">
-        <v>92.742249999999999</v>
+        <v>96.250833333333318</v>
       </c>
       <c r="I101" s="1">
-        <v>1.8536973712485812E-2</v>
+        <v>2.5717531943246275E-2</v>
       </c>
       <c r="J101" s="1">
-        <v>43.53</v>
+        <v>48.89</v>
       </c>
       <c r="K101" s="1">
-        <v>-3.67</v>
+        <v>12</v>
       </c>
       <c r="L101" s="1">
-        <v>4.7463767593395167E-3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.6893121964064121E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B102" s="5">
-        <v>2015</v>
+      <c r="B102" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C102" s="1">
-        <v>0.17053215555121251</v>
+        <v>0.15923696499426643</v>
       </c>
       <c r="D102" s="1">
-        <v>26655</v>
+        <v>29710</v>
       </c>
       <c r="E102" s="1">
-        <v>21862</v>
+        <v>23825</v>
       </c>
       <c r="F102" s="1">
-        <v>1103</v>
+        <v>1187</v>
       </c>
       <c r="G102" s="1">
-        <v>100.91800000000001</v>
+        <v>111.364</v>
       </c>
       <c r="H102" s="1">
-        <v>93.682916666666657</v>
+        <v>96.719916666666663</v>
       </c>
       <c r="I102" s="1">
-        <v>1.8034730263455371E-2</v>
+        <v>2.5286638152642912E-2</v>
       </c>
       <c r="J102" s="1">
-        <v>47.56</v>
+        <v>51.35</v>
       </c>
       <c r="K102" s="1">
-        <v>-0.91</v>
+        <v>11.81</v>
       </c>
       <c r="L102" s="1">
-        <v>1.2975191826415525E-3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.2963179546512421E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B103" s="5">
-        <v>2015</v>
+      <c r="B103" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C103" s="1">
-        <v>0.17739168028430216</v>
+        <v>0.16268898514209965</v>
       </c>
       <c r="D103" s="1">
-        <v>28899</v>
+        <v>31296</v>
       </c>
       <c r="E103" s="1">
-        <v>23737</v>
+        <v>27580</v>
       </c>
       <c r="F103" s="1">
-        <v>1225</v>
+        <v>1258</v>
       </c>
       <c r="G103" s="1">
-        <v>100.28</v>
+        <v>108.253</v>
       </c>
       <c r="H103" s="1">
-        <v>93.282416666666663</v>
+        <v>96.508583333333334</v>
       </c>
       <c r="I103" s="1">
-        <v>1.747902289240872E-2</v>
+        <v>2.6817299572377471E-2</v>
       </c>
       <c r="J103" s="1">
-        <v>48.94</v>
+        <v>52.24</v>
       </c>
       <c r="K103" s="1">
-        <v>-4.8099999999999996</v>
+        <v>0.81</v>
       </c>
       <c r="L103" s="1">
-        <v>2.1319125649834313E-3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.8966973228867502E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B104" s="5">
-        <v>2015</v>
+      <c r="B104" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C104" s="1">
-        <v>0.19941929093767094</v>
+        <v>0.16684999199629721</v>
       </c>
       <c r="D104" s="1">
-        <v>22664</v>
+        <v>24524</v>
       </c>
       <c r="E104" s="1">
-        <v>18984</v>
+        <v>19328</v>
       </c>
       <c r="F104" s="1">
-        <v>1080</v>
+        <v>1011</v>
       </c>
       <c r="G104" s="1">
-        <v>100.28</v>
+        <v>108.253</v>
       </c>
       <c r="H104" s="1">
-        <v>93.281750000000002</v>
+        <v>96.177250000000001</v>
       </c>
       <c r="I104" s="1">
-        <v>1.6370832333893019E-2</v>
+        <v>2.1896430228760977E-2</v>
       </c>
       <c r="J104" s="1">
-        <v>41.54</v>
+        <v>42.97</v>
       </c>
       <c r="K104" s="1">
-        <v>-15.51</v>
+        <v>-11.71</v>
       </c>
       <c r="L104" s="1">
-        <v>5.4569441112976734E-3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.7728603429409506E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B105" s="20">
-        <v>2015</v>
+      <c r="B105" s="20" t="s">
+        <v>127</v>
       </c>
       <c r="C105" s="6">
-        <v>0.16962166120949571</v>
+        <v>0.15514395503901732</v>
       </c>
       <c r="D105" s="6">
-        <v>30105</v>
+        <v>32328</v>
       </c>
       <c r="E105" s="6">
-        <v>25194</v>
+        <v>28597</v>
       </c>
       <c r="F105" s="6">
-        <v>1285</v>
+        <v>1305</v>
       </c>
       <c r="G105" s="6">
-        <v>99.885999999999996</v>
+        <v>111.958</v>
       </c>
       <c r="H105" s="6">
-        <v>93.465249999999969</v>
+        <v>96.403083333333328</v>
       </c>
       <c r="I105" s="6">
-        <v>2.3058432687660956E-2</v>
+        <v>2.8521875009818697E-2</v>
       </c>
       <c r="J105" s="6">
-        <v>49.91</v>
+        <v>52.85</v>
       </c>
       <c r="K105" s="6">
-        <v>-5.07</v>
+        <v>8.32</v>
       </c>
       <c r="L105" s="6">
-        <v>3.3493513639035739E-3</v>
+        <v>4.7045959881065469E-3</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B106" s="5" t="s">
-        <v>127</v>
+      <c r="B106" s="5">
+        <v>2015</v>
       </c>
       <c r="C106" s="1">
-        <v>0.42825524174665841</v>
+        <v>0.18548489754262557</v>
       </c>
       <c r="D106" s="1">
-        <v>10351</v>
+        <v>24100</v>
       </c>
       <c r="E106" s="1">
-        <v>21365</v>
+        <v>18884</v>
       </c>
       <c r="F106" s="1">
-        <v>1092</v>
+        <v>1065</v>
       </c>
       <c r="G106" s="1">
-        <v>105.06699999999999</v>
+        <v>100.497</v>
       </c>
       <c r="H106" s="1">
-        <v>96.493666666666641</v>
+        <v>93.449999999999989</v>
       </c>
       <c r="I106" s="1">
-        <v>2.4988039692787293E-2</v>
+        <v>1.6308479902681333E-2</v>
       </c>
       <c r="J106" s="1">
-        <v>48.73</v>
+        <v>45.32</v>
       </c>
       <c r="K106" s="1">
-        <v>0.05</v>
+        <v>-5.47</v>
       </c>
       <c r="L106" s="1">
-        <v>3.3180207106222959E-3</v>
+        <v>3.3681382736073799E-3</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B107" s="5" t="s">
-        <v>127</v>
+      <c r="B107" s="5">
+        <v>2015</v>
       </c>
       <c r="C107" s="1">
-        <v>0.6206038427674393</v>
+        <v>0.24083433169117541</v>
       </c>
       <c r="D107" s="1">
-        <v>9736</v>
+        <v>22536</v>
       </c>
       <c r="E107" s="1">
-        <v>19798</v>
+        <v>17635</v>
       </c>
       <c r="F107" s="1">
-        <v>1516</v>
+        <v>1317</v>
       </c>
       <c r="G107" s="1">
-        <v>111.364</v>
+        <v>100.91800000000001</v>
       </c>
       <c r="H107" s="1">
-        <v>96.732749999999996</v>
+        <v>93.750583333333338</v>
       </c>
       <c r="I107" s="1">
-        <v>2.9328607111412271E-2</v>
+        <v>2.1582202499451496E-2</v>
       </c>
       <c r="J107" s="1">
-        <v>47.86</v>
+        <v>44.96</v>
       </c>
       <c r="K107" s="1">
-        <v>11.92</v>
+        <v>-0.38</v>
       </c>
       <c r="L107" s="1">
-        <v>7.9806658512882461E-3</v>
+        <v>4.1093298444729431E-3</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B108" s="5" t="s">
-        <v>127</v>
+      <c r="B108" s="5">
+        <v>2015</v>
       </c>
       <c r="C108" s="1">
-        <v>0.48523526621748997</v>
+        <v>0.20139721785162526</v>
       </c>
       <c r="D108" s="1">
-        <v>9072</v>
+        <v>22039</v>
       </c>
       <c r="E108" s="1">
-        <v>21567</v>
+        <v>18724</v>
       </c>
       <c r="F108" s="1">
-        <v>1087</v>
+        <v>1060</v>
       </c>
       <c r="G108" s="1">
-        <v>113.831</v>
+        <v>101.029</v>
       </c>
       <c r="H108" s="1">
-        <v>96.672000000000011</v>
+        <v>93.498333333333335</v>
       </c>
       <c r="I108" s="1">
-        <v>2.8038740237403784E-2</v>
+        <v>2.5079469660344748E-2</v>
       </c>
       <c r="J108" s="1">
-        <v>48.2</v>
+        <v>44.14</v>
       </c>
       <c r="K108" s="1">
-        <v>13.75</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="L108" s="1">
-        <v>2.2358812417176532E-3</v>
+        <v>2.1805134260586331E-3</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B109" s="5" t="s">
-        <v>127</v>
+      <c r="B109" s="5">
+        <v>2015</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1">
-        <v>38711</v>
+        <v>35074</v>
       </c>
       <c r="F109" s="1">
-        <v>1911</v>
+        <v>1826</v>
       </c>
       <c r="G109" s="1">
-        <v>114.884</v>
+        <v>100.953</v>
       </c>
       <c r="H109" s="1">
-        <v>96.427666666666667</v>
+        <v>93.272750000000016</v>
       </c>
       <c r="I109" s="1">
-        <v>3.2858168018779568E-2</v>
+        <v>2.9708201502867314E-2</v>
       </c>
       <c r="J109" s="1">
-        <v>53.83</v>
+        <v>52.25</v>
       </c>
       <c r="K109" s="1">
-        <v>8.36</v>
+        <v>4.45</v>
       </c>
       <c r="L109" s="1">
-        <v>2.2258170451366507E-3</v>
+        <v>2.9970832509392921E-3</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B110" s="5" t="s">
-        <v>127</v>
+      <c r="B110" s="5">
+        <v>2015</v>
       </c>
       <c r="C110" s="1">
-        <v>0.39462756240083163</v>
+        <v>0.1947084436454288</v>
       </c>
       <c r="D110" s="1">
-        <v>12923</v>
+        <v>27986</v>
       </c>
       <c r="E110" s="1">
-        <v>22651</v>
+        <v>20497</v>
       </c>
       <c r="F110" s="1">
-        <v>1348</v>
+        <v>1393</v>
       </c>
       <c r="G110" s="1">
-        <v>107.6</v>
+        <v>99.712000000000003</v>
       </c>
       <c r="H110" s="1">
-        <v>97.09608333333334</v>
+        <v>94.05725000000001</v>
       </c>
       <c r="I110" s="1">
-        <v>2.3994304853711765E-2</v>
+        <v>1.7335899218914243E-2</v>
       </c>
       <c r="J110" s="1">
-        <v>43.81</v>
+        <v>41.27</v>
       </c>
       <c r="K110" s="1">
-        <v>-3.35</v>
+        <v>-8.5500000000000007</v>
       </c>
       <c r="L110" s="1">
-        <v>1.8915743733977539E-3</v>
+        <v>2.1384493768722133E-3</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B111" s="5" t="s">
-        <v>127</v>
+      <c r="B111" s="5">
+        <v>2015</v>
       </c>
       <c r="C111" s="1">
-        <v>0.30442703463032089</v>
+        <v>0.2047485127576967</v>
       </c>
       <c r="D111" s="1">
-        <v>10822</v>
+        <v>22442</v>
       </c>
       <c r="E111" s="1">
-        <v>20036</v>
+        <v>18220</v>
       </c>
       <c r="F111" s="1">
-        <v>814</v>
+        <v>1098</v>
       </c>
       <c r="G111" s="1">
-        <v>108.253</v>
+        <v>100.28</v>
       </c>
       <c r="H111" s="1">
-        <v>95.743833333333313</v>
+        <v>92.575166666666675</v>
       </c>
       <c r="I111" s="1">
-        <v>2.5192746911632955E-2</v>
+        <v>1.6571168713051386E-2</v>
       </c>
       <c r="J111" s="1">
-        <v>45.67</v>
+        <v>41.41</v>
       </c>
       <c r="K111" s="1">
-        <v>-2.63</v>
+        <v>-12.31</v>
       </c>
       <c r="L111" s="1">
-        <v>4.7508485911494152E-3</v>
+        <v>7.6216462028194636E-3</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B112" s="5" t="s">
-        <v>127</v>
+      <c r="B112" s="5">
+        <v>2015</v>
       </c>
       <c r="C112" s="1">
-        <v>0.427095475222803</v>
+        <v>0.19699528029218857</v>
       </c>
       <c r="D112" s="1">
-        <v>9417</v>
+        <v>21824</v>
       </c>
       <c r="E112" s="1">
-        <v>18706</v>
+        <v>16731</v>
       </c>
       <c r="F112" s="1">
-        <v>917</v>
+        <v>948</v>
       </c>
       <c r="G112" s="1">
-        <v>103.768</v>
+        <v>100.09399999999999</v>
       </c>
       <c r="H112" s="1">
-        <v>96.393583333333325</v>
+        <v>93.640916666666669</v>
       </c>
       <c r="I112" s="1">
-        <v>2.0951364329899348E-2</v>
+        <v>1.6278595663506763E-2</v>
       </c>
       <c r="J112" s="1">
-        <v>42.8</v>
+        <v>39.1</v>
       </c>
       <c r="K112" s="1">
-        <v>-1.99</v>
+        <v>-4.8</v>
       </c>
       <c r="L112" s="1">
-        <v>3.0012892237453724E-3</v>
+        <v>3.2341677223945366E-3</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B113" s="5" t="s">
-        <v>127</v>
+      <c r="B113" s="5">
+        <v>2015</v>
       </c>
       <c r="C113" s="1">
-        <v>0.66221968675558507</v>
+        <v>0.2354463060712802</v>
       </c>
       <c r="D113" s="1">
-        <v>14198</v>
+        <v>33620</v>
       </c>
       <c r="E113" s="1">
-        <v>31073</v>
+        <v>27849</v>
       </c>
       <c r="F113" s="1">
-        <v>2530</v>
+        <v>2060</v>
       </c>
       <c r="G113" s="1">
-        <v>130.708</v>
+        <v>102.068</v>
       </c>
       <c r="H113" s="1">
-        <v>96.742583333333343</v>
+        <v>92.878666666666675</v>
       </c>
       <c r="I113" s="1">
-        <v>2.5963792596290124E-2</v>
+        <v>1.7596736521623586E-2</v>
       </c>
       <c r="J113" s="1">
-        <v>54.87</v>
+        <v>51.32</v>
       </c>
       <c r="K113" s="1">
-        <v>11.96</v>
+        <v>3.62</v>
       </c>
       <c r="L113" s="1">
-        <v>2.5776605132501983E-3</v>
+        <v>1.4687028527919112E-3</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B114" s="5" t="s">
-        <v>127</v>
+      <c r="B114" s="5">
+        <v>2015</v>
       </c>
       <c r="C114" s="1">
-        <v>0.68105514069005046</v>
+        <v>0.32386459066795681</v>
       </c>
       <c r="D114" s="1">
-        <v>15047</v>
+        <v>34177</v>
       </c>
       <c r="E114" s="1">
-        <v>31099</v>
+        <v>28852</v>
       </c>
       <c r="F114" s="1">
-        <v>2511</v>
+        <v>2623</v>
       </c>
       <c r="G114" s="1">
-        <v>114.884</v>
+        <v>100.953</v>
       </c>
       <c r="H114" s="1">
-        <v>96.1965</v>
+        <v>92.763083333333341</v>
       </c>
       <c r="I114" s="1">
-        <v>3.1957294011628112E-2</v>
+        <v>2.3290026332397552E-2</v>
       </c>
       <c r="J114" s="1">
-        <v>49.77</v>
+        <v>47.79</v>
       </c>
       <c r="K114" s="1">
-        <v>6.18</v>
+        <v>-1.06</v>
       </c>
       <c r="L114" s="1">
-        <v>3.4393734321015146E-3</v>
+        <v>4.3542033905682141E-3</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B115" s="5" t="s">
-        <v>127</v>
+      <c r="B115" s="5">
+        <v>2015</v>
       </c>
       <c r="C115" s="1">
-        <v>0.36655560386387587</v>
+        <v>0.17423568453925525</v>
       </c>
       <c r="D115" s="1">
-        <v>13316</v>
+        <v>28822</v>
       </c>
       <c r="E115" s="1">
-        <v>29444</v>
+        <v>25585</v>
       </c>
       <c r="F115" s="1">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="G115" s="1">
-        <v>108.253</v>
+        <v>100.28</v>
       </c>
       <c r="H115" s="1">
-        <v>96.61966666666666</v>
+        <v>93.521749999999997</v>
       </c>
       <c r="I115" s="1">
-        <v>2.945640910745792E-2</v>
+        <v>2.2994379151762903E-2</v>
       </c>
       <c r="J115" s="1">
-        <v>51.86</v>
+        <v>48.19</v>
       </c>
       <c r="K115" s="1">
-        <v>1.44</v>
+        <v>-7.62</v>
       </c>
       <c r="L115" s="1">
-        <v>3.4755090038367828E-3</v>
+        <v>3.5631672353448607E-3</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B116" s="5" t="s">
-        <v>127</v>
+      <c r="B116" s="5">
+        <v>2015</v>
       </c>
       <c r="C116" s="1">
-        <v>0.3917554389288227</v>
+        <v>0.19540713025590747</v>
       </c>
       <c r="D116" s="1">
-        <v>10009</v>
+        <v>21514</v>
       </c>
       <c r="E116" s="1">
-        <v>20499</v>
+        <v>17435</v>
       </c>
       <c r="F116" s="1">
-        <v>894</v>
+        <v>927</v>
       </c>
       <c r="G116" s="1">
-        <v>103.768</v>
+        <v>100.09399999999999</v>
       </c>
       <c r="H116" s="1">
-        <v>96.381583333333325</v>
+        <v>93.496750000000006</v>
       </c>
       <c r="I116" s="1">
-        <v>1.8850554999281188E-2</v>
+        <v>1.3343441628288785E-2</v>
       </c>
       <c r="J116" s="1">
-        <v>42.04</v>
+        <v>40.270000000000003</v>
       </c>
       <c r="K116" s="1">
-        <v>-4.1100000000000003</v>
+        <v>-6.88</v>
       </c>
       <c r="L116" s="1">
-        <v>2.9761379313823656E-3</v>
+        <v>4.9622538872219502E-3</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B117" s="5" t="s">
-        <v>127</v>
+      <c r="B117" s="5">
+        <v>2015</v>
       </c>
       <c r="C117" s="1">
-        <v>0.62860432504069419</v>
+        <v>0.24366977098544187</v>
       </c>
       <c r="D117" s="1">
-        <v>9509</v>
+        <v>23560</v>
       </c>
       <c r="E117" s="1">
-        <v>18079</v>
+        <v>16255</v>
       </c>
       <c r="F117" s="1">
-        <v>1476</v>
+        <v>1371</v>
       </c>
       <c r="G117" s="1">
-        <v>113.831</v>
+        <v>101.029</v>
       </c>
       <c r="H117" s="1">
-        <v>97.234833333333313</v>
+        <v>94.540083333333328</v>
       </c>
       <c r="I117" s="1">
-        <v>2.718706658679889E-2</v>
+        <v>1.9269780147127595E-2</v>
       </c>
       <c r="J117" s="1">
-        <v>39.450000000000003</v>
+        <v>36.25</v>
       </c>
       <c r="K117" s="1">
-        <v>3.19</v>
+        <v>-0.88</v>
       </c>
       <c r="L117" s="1">
-        <v>2.3459813968357505E-3</v>
+        <v>1.1932750886087379E-3</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>127</v>
+        <v>18</v>
+      </c>
+      <c r="B118" s="5">
+        <v>2015</v>
       </c>
       <c r="C118" s="1">
-        <v>0.42265500859145611</v>
+        <v>0.1988482220973565</v>
       </c>
       <c r="D118" s="1">
-        <v>12389</v>
+        <v>28197</v>
       </c>
       <c r="E118" s="1">
-        <v>23818</v>
+        <v>21329</v>
       </c>
       <c r="F118" s="1">
-        <v>1461</v>
+        <v>1513</v>
       </c>
       <c r="G118" s="1">
-        <v>114.568</v>
+        <v>100.895</v>
       </c>
       <c r="H118" s="1">
-        <v>96.519916666666674</v>
+        <v>93.379333333333321</v>
       </c>
       <c r="I118" s="1">
-        <v>2.6877319127447955E-2</v>
+        <v>1.8908744162042725E-2</v>
       </c>
       <c r="J118" s="1">
-        <v>49.04</v>
+        <v>45.89</v>
       </c>
       <c r="K118" s="1">
-        <v>1.76</v>
+        <v>-4.6100000000000003</v>
       </c>
       <c r="L118" s="1">
-        <v>2.3197737445043252E-3</v>
+        <v>3.617696465525933E-3</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B119" s="5" t="s">
-        <v>127</v>
+      <c r="B119" s="5">
+        <v>2015</v>
       </c>
       <c r="C119" s="1">
-        <v>0.38113941753883201</v>
+        <v>0.17151570547202077</v>
       </c>
       <c r="D119" s="1">
-        <v>11461</v>
+        <v>25493</v>
       </c>
       <c r="E119" s="1">
-        <v>27201</v>
+        <v>23661</v>
       </c>
       <c r="F119" s="1">
-        <v>1096</v>
+        <v>1061</v>
       </c>
       <c r="G119" s="1">
-        <v>111.364</v>
+        <v>100.91800000000001</v>
       </c>
       <c r="H119" s="1">
-        <v>96.412416666666672</v>
+        <v>93.562333333333342</v>
       </c>
       <c r="I119" s="1">
-        <v>2.6145003102801535E-2</v>
+        <v>2.112387026533202E-2</v>
       </c>
       <c r="J119" s="1">
-        <v>49.02</v>
+        <v>46.76</v>
       </c>
       <c r="K119" s="1">
-        <v>7.93</v>
+        <v>-3.81</v>
       </c>
       <c r="L119" s="1">
-        <v>1.4421960207870368E-3</v>
+        <v>1.5833028521775566E-3</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B120" s="5" t="s">
-        <v>127</v>
+      <c r="B120" s="5">
+        <v>2015</v>
       </c>
       <c r="C120" s="1">
-        <v>0.72289784077486707</v>
+        <v>0.23381344702478485</v>
       </c>
       <c r="D120" s="1">
-        <v>11448</v>
+        <v>35577</v>
       </c>
       <c r="E120" s="1">
-        <v>18923</v>
+        <v>17757</v>
       </c>
       <c r="F120" s="1">
-        <v>2116</v>
+        <v>2057</v>
       </c>
       <c r="G120" s="1">
-        <v>125.31100000000001</v>
+        <v>101.215</v>
       </c>
       <c r="H120" s="1">
-        <v>97.522999999999982</v>
+        <v>95.411249999999995</v>
       </c>
       <c r="I120" s="1">
-        <v>2.980832472047355E-2</v>
+        <v>1.4419140073341798E-2</v>
       </c>
       <c r="J120" s="1">
-        <v>42.09</v>
+        <v>42.9</v>
       </c>
       <c r="K120" s="1">
-        <v>-6.9</v>
+        <v>-0.04</v>
       </c>
       <c r="L120" s="1">
-        <v>3.9932349901343608E-4</v>
+        <v>2.3972562097243156E-3</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B121" s="5" t="s">
-        <v>127</v>
+      <c r="B121" s="5">
+        <v>2015</v>
       </c>
       <c r="C121" s="1">
-        <v>0.33405560689572805</v>
+        <v>0.15504751676857023</v>
       </c>
       <c r="D121" s="1">
-        <v>10001</v>
+        <v>23119</v>
       </c>
       <c r="E121" s="1">
-        <v>21974</v>
+        <v>19744</v>
       </c>
       <c r="F121" s="1">
-        <v>823</v>
+        <v>854</v>
       </c>
       <c r="G121" s="1">
-        <v>105.06699999999999</v>
+        <v>100.497</v>
       </c>
       <c r="H121" s="1">
-        <v>96.485000000000014</v>
+        <v>93.513166666666677</v>
       </c>
       <c r="I121" s="1">
-        <v>1.6515728310959727E-2</v>
+        <v>1.3100700196413172E-2</v>
       </c>
       <c r="J121" s="1">
-        <v>45.73</v>
+        <v>39.1</v>
       </c>
       <c r="K121" s="1">
-        <v>-1.76</v>
+        <v>-10.81</v>
       </c>
       <c r="L121" s="1">
-        <v>3.6846323382087758E-3</v>
+        <v>3.836772672679103E-3</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B122" s="5" t="s">
-        <v>127</v>
+      <c r="B122" s="5">
+        <v>2015</v>
       </c>
       <c r="C122" s="1">
-        <v>0.50590319907555614</v>
+        <v>0.21761273273389095</v>
       </c>
       <c r="D122" s="1">
-        <v>9710</v>
+        <v>22879</v>
       </c>
       <c r="E122" s="1">
-        <v>18275</v>
+        <v>16862</v>
       </c>
       <c r="F122" s="1">
-        <v>1213</v>
+        <v>1189</v>
       </c>
       <c r="G122" s="1">
-        <v>113.831</v>
+        <v>101.029</v>
       </c>
       <c r="H122" s="1">
-        <v>96.371499999999983</v>
+        <v>93.32074999999999</v>
       </c>
       <c r="I122" s="1">
-        <v>2.409327084712954E-2</v>
+        <v>1.8099297269645594E-2</v>
       </c>
       <c r="J122" s="1">
-        <v>43.26</v>
+        <v>40.11</v>
       </c>
       <c r="K122" s="1">
-        <v>-0.2</v>
+        <v>-4.5599999999999996</v>
       </c>
       <c r="L122" s="1">
-        <v>2.2400794661504761E-3</v>
+        <v>2.1882553157259012E-3</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B123" s="5" t="s">
-        <v>127</v>
+      <c r="B123" s="5">
+        <v>2015</v>
       </c>
       <c r="C123" s="1">
-        <v>0.44257823044529271</v>
+        <v>0.21329974939179999</v>
       </c>
       <c r="D123" s="1">
-        <v>12207</v>
+        <v>27947</v>
       </c>
       <c r="E123" s="1">
-        <v>24319</v>
+        <v>21843</v>
       </c>
       <c r="F123" s="1">
-        <v>1326</v>
+        <v>1415</v>
       </c>
       <c r="G123" s="1">
-        <v>109.235</v>
+        <v>99.953999999999994</v>
       </c>
       <c r="H123" s="1">
-        <v>96.474166666666648</v>
+        <v>93.28133333333335</v>
       </c>
       <c r="I123" s="1">
-        <v>1.9550614597208561E-2</v>
+        <v>1.8884914424820529E-2</v>
       </c>
       <c r="J123" s="1">
-        <v>48.68</v>
+        <v>45.85</v>
       </c>
       <c r="K123" s="1">
-        <v>1.39</v>
+        <v>-4.07</v>
       </c>
       <c r="L123" s="1">
-        <v>1.7670953972435813E-3</v>
+        <v>2.712039432361364E-3</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B124" s="5" t="s">
-        <v>127</v>
+      <c r="B124" s="5">
+        <v>2015</v>
       </c>
       <c r="C124" s="1">
-        <v>0.32278071603109004</v>
+        <v>0.14624744245237567</v>
       </c>
       <c r="D124" s="1">
-        <v>10212</v>
+        <v>22415</v>
       </c>
       <c r="E124" s="1">
-        <v>23222</v>
+        <v>20663</v>
       </c>
       <c r="F124" s="1">
-        <v>812</v>
+        <v>781</v>
       </c>
       <c r="G124" s="1">
-        <v>105.06699999999999</v>
+        <v>100.497</v>
       </c>
       <c r="H124" s="1">
-        <v>96.212666666666678</v>
+        <v>93.033666666666662</v>
       </c>
       <c r="I124" s="1">
-        <v>2.1812982324487126E-2</v>
+        <v>1.301995182519709E-2</v>
       </c>
       <c r="J124" s="1">
-        <v>49.48</v>
+        <v>43.77</v>
       </c>
       <c r="K124" s="1">
-        <v>-0.41</v>
+        <v>-13.73</v>
       </c>
       <c r="L124" s="1">
-        <v>4.5583149952845015E-3</v>
+        <v>7.1182931794879344E-3</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B125" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C125" s="1">
-        <v>0.73990764438261214</v>
-      </c>
-      <c r="D125" s="1">
-        <v>15891</v>
-      </c>
+      <c r="B125" s="5">
+        <v>2015</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
       <c r="E125" s="1">
-        <v>32913</v>
+        <v>29424</v>
       </c>
       <c r="F125" s="1">
-        <v>2881</v>
+        <v>2874</v>
       </c>
       <c r="G125" s="1">
-        <v>114.884</v>
+        <v>100.953</v>
       </c>
       <c r="H125" s="1">
-        <v>96.143749999999997</v>
+        <v>92.767916666666679</v>
       </c>
       <c r="I125" s="1">
-        <v>3.0581799409374513E-2</v>
+        <v>2.5894419070523998E-2</v>
       </c>
       <c r="J125" s="1">
-        <v>51.52</v>
+        <v>50.85</v>
       </c>
       <c r="K125" s="1">
-        <v>6.56</v>
+        <v>2.11</v>
       </c>
       <c r="L125" s="1">
-        <v>6.0117236938517218E-3</v>
+        <v>5.8046911837329141E-3</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B126" s="5" t="s">
-        <v>127</v>
+      <c r="B126" s="5">
+        <v>2015</v>
       </c>
       <c r="C126" s="1">
-        <v>0.59255984028917008</v>
+        <v>0.22706007530477679</v>
       </c>
       <c r="D126" s="1">
-        <v>12355</v>
+        <v>29514</v>
       </c>
       <c r="E126" s="1">
-        <v>27864</v>
+        <v>26721</v>
       </c>
       <c r="F126" s="1">
-        <v>1970</v>
+        <v>1744</v>
       </c>
       <c r="G126" s="1">
-        <v>130.708</v>
+        <v>102.068</v>
       </c>
       <c r="H126" s="1">
-        <v>96.915666666666667</v>
+        <v>92.893583333333353</v>
       </c>
       <c r="I126" s="1">
-        <v>2.9748788301548534E-2</v>
+        <v>2.494641818515007E-2</v>
       </c>
       <c r="J126" s="1">
-        <v>55.47</v>
+        <v>50.07</v>
       </c>
       <c r="K126" s="1">
-        <v>14.57</v>
+        <v>3.18</v>
       </c>
       <c r="L126" s="1">
-        <v>3.2193840253980921E-3</v>
+        <v>2.9904893938548895E-3</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B127" s="5" t="s">
-        <v>127</v>
+      <c r="B127" s="5">
+        <v>2015</v>
       </c>
       <c r="C127" s="1">
-        <v>0.48383700223059262</v>
+        <v>0.20884005012886972</v>
       </c>
       <c r="D127" s="1">
-        <v>9885</v>
+        <v>23018</v>
       </c>
       <c r="E127" s="1">
-        <v>18353</v>
+        <v>17320</v>
       </c>
       <c r="F127" s="1">
-        <v>1181</v>
+        <v>1148</v>
       </c>
       <c r="G127" s="1">
-        <v>113.831</v>
+        <v>101.029</v>
       </c>
       <c r="H127" s="1">
-        <v>96.882333333333307</v>
+        <v>93.655416666666667</v>
       </c>
       <c r="I127" s="1">
-        <v>2.8566729709727817E-2</v>
+        <v>1.8979676157231517E-2</v>
       </c>
       <c r="J127" s="1">
-        <v>43.42</v>
+        <v>41.44</v>
       </c>
       <c r="K127" s="1">
-        <v>5.54</v>
+        <v>-2.0099999999999998</v>
       </c>
       <c r="L127" s="1">
-        <v>2.4263355535454867E-3</v>
+        <v>2.5738664794499491E-3</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B128" s="5" t="s">
-        <v>127</v>
+      <c r="B128" s="5">
+        <v>2015</v>
       </c>
       <c r="C128" s="1">
-        <v>0.35175012767792047</v>
+        <v>0.14591679285207099</v>
       </c>
       <c r="D128" s="1">
-        <v>12083</v>
+        <v>28449</v>
       </c>
       <c r="E128" s="1">
-        <v>20914</v>
+        <v>17794</v>
       </c>
       <c r="F128" s="1">
-        <v>1047</v>
+        <v>989</v>
       </c>
       <c r="G128" s="1">
-        <v>105.06699999999999</v>
+        <v>100.497</v>
       </c>
       <c r="H128" s="1">
-        <v>96.766749999999988</v>
+        <v>93.624749999999992</v>
       </c>
       <c r="I128" s="1">
-        <v>3.579517750129764E-2</v>
+        <v>2.1152132951759262E-2</v>
       </c>
       <c r="J128" s="1">
-        <v>59.92</v>
+        <v>53.79</v>
       </c>
       <c r="K128" s="1">
-        <v>14.26</v>
+        <v>-1.05</v>
       </c>
       <c r="L128" s="1">
-        <v>4.3293958507007249E-3</v>
+        <v>5.4437375338016285E-3</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B129" s="5" t="s">
-        <v>127</v>
+      <c r="B129" s="5">
+        <v>2015</v>
       </c>
       <c r="C129" s="1">
-        <v>0.52686032274999917</v>
+        <v>0.2203479403504621</v>
       </c>
       <c r="D129" s="1">
-        <v>9416</v>
+        <v>22595</v>
       </c>
       <c r="E129" s="1">
-        <v>20380</v>
+        <v>17177</v>
       </c>
       <c r="F129" s="1">
-        <v>1225</v>
+        <v>1189</v>
       </c>
       <c r="G129" s="1">
-        <v>113.831</v>
+        <v>101.029</v>
       </c>
       <c r="H129" s="1">
-        <v>96.759166666666658</v>
+        <v>93.797666666666672</v>
       </c>
       <c r="I129" s="1">
-        <v>2.8024818630128557E-2</v>
+        <v>2.2995402073393754E-2</v>
       </c>
       <c r="J129" s="1">
-        <v>42.13</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="K129" s="1">
-        <v>6.1</v>
+        <v>-1.45</v>
       </c>
       <c r="L129" s="1">
-        <v>2.8830693244501202E-3</v>
+        <v>3.0902835868827365E-3</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B130" s="5" t="s">
-        <v>127</v>
+      <c r="B130" s="5">
+        <v>2015</v>
       </c>
       <c r="C130" s="1">
-        <v>0.42047984932564236</v>
+        <v>0.18918656911650006</v>
       </c>
       <c r="D130" s="1">
-        <v>12513</v>
+        <v>28357</v>
       </c>
       <c r="E130" s="1">
-        <v>28749</v>
+        <v>25867</v>
       </c>
       <c r="F130" s="1">
-        <v>1369</v>
+        <v>1350</v>
       </c>
       <c r="G130" s="1">
-        <v>111.958</v>
+        <v>99.885999999999996</v>
       </c>
       <c r="H130" s="1">
-        <v>96.730916666666658</v>
+        <v>93.358916666666673</v>
       </c>
       <c r="I130" s="1">
-        <v>3.3481501743828218E-2</v>
+        <v>2.357912870274417E-2</v>
       </c>
       <c r="J130" s="1">
-        <v>51.89</v>
+        <v>50.75</v>
       </c>
       <c r="K130" s="1">
-        <v>7.99</v>
+        <v>-5.33</v>
       </c>
       <c r="L130" s="1">
-        <v>4.3356356424810233E-3</v>
+        <v>3.7818123090588534E-3</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B131" s="5" t="s">
-        <v>127</v>
+      <c r="B131" s="5">
+        <v>2015</v>
       </c>
       <c r="C131" s="1">
-        <v>0.89147732322482021</v>
+        <v>0.26503507968481138</v>
       </c>
       <c r="D131" s="1">
-        <v>12893</v>
+        <v>30921</v>
       </c>
       <c r="E131" s="1">
-        <v>28906</v>
+        <v>25732</v>
       </c>
       <c r="F131" s="1">
-        <v>2867</v>
+        <v>1977</v>
       </c>
       <c r="G131" s="1">
-        <v>126.178</v>
+        <v>102.261</v>
       </c>
       <c r="H131" s="1">
-        <v>96.614333333333335</v>
+        <v>93.342583333333337</v>
       </c>
       <c r="I131" s="1">
-        <v>3.6753216382557304E-2</v>
+        <v>2.7650140926174242E-2</v>
       </c>
       <c r="J131" s="1">
-        <v>56.02</v>
+        <v>53.39</v>
       </c>
       <c r="K131" s="1">
-        <v>16.2</v>
+        <v>2.11</v>
       </c>
       <c r="L131" s="1">
-        <v>3.9427482133176485E-3</v>
+        <v>3.4613605147766503E-3</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B132" s="5" t="s">
-        <v>127</v>
+      <c r="B132" s="5">
+        <v>2015</v>
       </c>
       <c r="C132" s="1">
-        <v>0.38058928313556967</v>
+        <v>0.17718751144388575</v>
       </c>
       <c r="D132" s="1">
-        <v>9417</v>
+        <v>21789</v>
       </c>
       <c r="E132" s="1">
-        <v>18320</v>
+        <v>17128</v>
       </c>
       <c r="F132" s="1">
-        <v>885</v>
+        <v>922</v>
       </c>
       <c r="G132" s="1">
-        <v>113.831</v>
+        <v>101.029</v>
       </c>
       <c r="H132" s="1">
-        <v>96.73599999999999</v>
+        <v>93.805666666666681</v>
       </c>
       <c r="I132" s="1">
-        <v>2.0698982446297517E-2</v>
+        <v>1.4314321965238394E-2</v>
       </c>
       <c r="J132" s="1">
-        <v>41.35</v>
+        <v>38.729999999999997</v>
       </c>
       <c r="K132" s="1">
-        <v>-4.51</v>
+        <v>-8.18</v>
       </c>
       <c r="L132" s="1">
-        <v>2.4087171426377414E-3</v>
+        <v>3.3248238225537705E-3</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B133" s="5" t="s">
-        <v>127</v>
+      <c r="B133" s="5">
+        <v>2015</v>
       </c>
       <c r="C133" s="1">
-        <v>0.39173053705794136</v>
+        <v>0.17223281884402536</v>
       </c>
       <c r="D133" s="1">
-        <v>12460</v>
+        <v>27471</v>
       </c>
       <c r="E133" s="1">
-        <v>27470</v>
+        <v>25594</v>
       </c>
       <c r="F133" s="1">
-        <v>1200</v>
+        <v>1125</v>
       </c>
       <c r="G133" s="1">
-        <v>110.98699999999999</v>
+        <v>101.19799999999999</v>
       </c>
       <c r="H133" s="1">
-        <v>96.543000000000006</v>
+        <v>93.61633333333333</v>
       </c>
       <c r="I133" s="1">
-        <v>3.1383543201077058E-2</v>
+        <v>2.4055914941665906E-2</v>
       </c>
       <c r="J133" s="1">
-        <v>53.2</v>
+        <v>51.08</v>
       </c>
       <c r="K133" s="1">
-        <v>8.6300000000000008</v>
+        <v>-1.38</v>
       </c>
       <c r="L133" s="1">
-        <v>5.0399936643700004E-3</v>
+        <v>3.8100885340936687E-3</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B134" s="5" t="s">
-        <v>127</v>
+      <c r="B134" s="5">
+        <v>2015</v>
       </c>
       <c r="C134" s="1">
-        <v>0.65951800547547668</v>
+        <v>0.19425415013859498</v>
       </c>
       <c r="D134" s="1">
-        <v>10862</v>
+        <v>26520</v>
       </c>
       <c r="E134" s="1">
-        <v>20595</v>
+        <v>18321</v>
       </c>
       <c r="F134" s="1">
-        <v>1931</v>
+        <v>1343</v>
       </c>
       <c r="G134" s="1">
-        <v>114.839</v>
+        <v>100.637</v>
       </c>
       <c r="H134" s="1">
-        <v>97.208083333333335</v>
+        <v>94.501666666666665</v>
       </c>
       <c r="I134" s="1">
-        <v>2.8375143687876123E-2</v>
+        <v>2.6849816916513565E-2</v>
       </c>
       <c r="J134" s="1">
-        <v>48.62</v>
+        <v>44.38</v>
       </c>
       <c r="K134" s="1">
-        <v>8.4499999999999993</v>
+        <v>2.11</v>
       </c>
       <c r="L134" s="1">
-        <v>1.4605449996619108E-3</v>
+        <v>7.1376157814141586E-4</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B135" s="5" t="s">
-        <v>127</v>
+      <c r="B135" s="5">
+        <v>2015</v>
       </c>
       <c r="C135" s="1">
-        <v>0.33214291713814914</v>
+        <v>0.16216876973233904</v>
       </c>
       <c r="D135" s="1">
-        <v>12222</v>
+        <v>26141</v>
       </c>
       <c r="E135" s="1">
-        <v>21175</v>
+        <v>19456</v>
       </c>
       <c r="F135" s="1">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="G135" s="1">
-        <v>108.253</v>
+        <v>100.28</v>
       </c>
       <c r="H135" s="1">
-        <v>96.049166666666665</v>
+        <v>92.405166666666673</v>
       </c>
       <c r="I135" s="1">
-        <v>2.038400331215795E-2</v>
+        <v>1.4155341628510936E-2</v>
       </c>
       <c r="J135" s="1">
-        <v>45.12</v>
+        <v>39.39</v>
       </c>
       <c r="K135" s="1">
-        <v>-7.75</v>
+        <v>-11.62</v>
       </c>
       <c r="L135" s="1">
-        <v>1.552574038374455E-3</v>
+        <v>3.5315345383243463E-3</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B136" s="5" t="s">
-        <v>127</v>
+      <c r="B136" s="5">
+        <v>2015</v>
       </c>
       <c r="C136" s="1">
-        <v>0.33380334949830875</v>
+        <v>0.13257306650157186</v>
       </c>
       <c r="D136" s="1">
-        <v>12124</v>
+        <v>28202</v>
       </c>
       <c r="E136" s="1">
-        <v>28290</v>
+        <v>29091</v>
       </c>
       <c r="F136" s="1">
-        <v>1089</v>
+        <v>973</v>
       </c>
       <c r="G136" s="1">
-        <v>130.708</v>
+        <v>102.068</v>
       </c>
       <c r="H136" s="1">
-        <v>95.991499999999988</v>
+        <v>92.161833333333334</v>
       </c>
       <c r="I136" s="1">
-        <v>2.2787652529882227E-2</v>
+        <v>1.7216744757802806E-2</v>
       </c>
       <c r="J136" s="1">
-        <v>54.96</v>
+        <v>54.21</v>
       </c>
       <c r="K136" s="1">
-        <v>10.57</v>
+        <v>-2.88</v>
       </c>
       <c r="L136" s="1">
-        <v>2.1091977655902749E-3</v>
+        <v>1.8760220077104963E-3</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B137" s="5" t="s">
-        <v>127</v>
+      <c r="B137" s="5">
+        <v>2015</v>
       </c>
       <c r="C137" s="1">
-        <v>0.38856138458666845</v>
+        <v>0.186776962888756</v>
       </c>
       <c r="D137" s="1">
-        <v>11335</v>
+        <v>24946</v>
       </c>
       <c r="E137" s="1">
-        <v>23579</v>
+        <v>22265</v>
       </c>
       <c r="F137" s="1">
-        <v>1081</v>
+        <v>1106</v>
       </c>
       <c r="G137" s="1">
-        <v>109.235</v>
+        <v>99.953999999999994</v>
       </c>
       <c r="H137" s="1">
-        <v>96.717583333333337</v>
+        <v>93.348583333333337</v>
       </c>
       <c r="I137" s="1">
-        <v>1.8969175467136695E-2</v>
+        <v>1.628529167378737E-2</v>
       </c>
       <c r="J137" s="1">
-        <v>47.24</v>
+        <v>44.86</v>
       </c>
       <c r="K137" s="1">
-        <v>-4.5599999999999996</v>
+        <v>-7.95</v>
       </c>
       <c r="L137" s="1">
-        <v>2.1519526027157462E-3</v>
+        <v>2.33362601875151E-3</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B138" s="5" t="s">
-        <v>127</v>
+      <c r="B138" s="5">
+        <v>2015</v>
       </c>
       <c r="C138" s="1">
-        <v>0.64416707919264649</v>
+        <v>0.21961658181146193</v>
       </c>
       <c r="D138" s="1">
-        <v>15153</v>
+        <v>37225</v>
       </c>
       <c r="E138" s="1">
-        <v>35601</v>
+        <v>32275</v>
       </c>
       <c r="F138" s="1">
-        <v>2658</v>
+        <v>2153</v>
       </c>
       <c r="G138" s="1">
-        <v>136.465</v>
+        <v>102.077</v>
       </c>
       <c r="H138" s="1">
-        <v>96.754583333333343</v>
+        <v>93.721333333333348</v>
       </c>
       <c r="I138" s="1">
-        <v>3.4387090820891635E-2</v>
+        <v>2.4502423180005083E-2</v>
       </c>
       <c r="J138" s="1">
-        <v>55.68</v>
+        <v>54.06</v>
       </c>
       <c r="K138" s="1">
-        <v>15.35</v>
+        <v>5.59</v>
       </c>
       <c r="L138" s="1">
-        <v>4.175079077037536E-3</v>
+        <v>2.200715986152547E-3</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B139" s="5" t="s">
-        <v>127</v>
+      <c r="B139" s="5">
+        <v>2015</v>
       </c>
       <c r="C139" s="1">
-        <v>0.83655386150988997</v>
+        <v>0.2990706889292748</v>
       </c>
       <c r="D139" s="1">
-        <v>9832</v>
+        <v>23102</v>
       </c>
       <c r="E139" s="1">
-        <v>18922</v>
+        <v>17077</v>
       </c>
       <c r="F139" s="1">
-        <v>2031</v>
+        <v>1650</v>
       </c>
       <c r="G139" s="1">
-        <v>113.831</v>
+        <v>101.029</v>
       </c>
       <c r="H139" s="1">
-        <v>96.139166666666654</v>
+        <v>92.478583333333304</v>
       </c>
       <c r="I139" s="1">
-        <v>3.9511407141825619E-2</v>
+        <v>2.7255823147467759E-2</v>
       </c>
       <c r="J139" s="1">
-        <v>47.38</v>
+        <v>43.02</v>
       </c>
       <c r="K139" s="1">
-        <v>13.79</v>
+        <v>5.64</v>
       </c>
       <c r="L139" s="1">
-        <v>3.8991640470142056E-3</v>
+        <v>1.8342845461526986E-3</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B140" s="5" t="s">
-        <v>127</v>
+      <c r="B140" s="5">
+        <v>2015</v>
       </c>
       <c r="C140" s="1">
-        <v>0.62934431001601454</v>
+        <v>0.19911765564080455</v>
       </c>
       <c r="D140" s="1">
-        <v>10925</v>
+        <v>35196</v>
       </c>
       <c r="E140" s="1">
-        <v>17531</v>
+        <v>16506</v>
       </c>
       <c r="F140" s="1">
-        <v>1758</v>
+        <v>1733</v>
       </c>
       <c r="G140" s="1">
-        <v>122.196</v>
+        <v>102.202</v>
       </c>
       <c r="H140" s="1">
-        <v>96.48233333333333</v>
+        <v>93.655749999999998</v>
       </c>
       <c r="I140" s="1">
-        <v>3.3964623078347841E-2</v>
+        <v>1.9770050476724622E-2</v>
       </c>
       <c r="J140" s="1">
-        <v>47.23</v>
+        <v>37.57</v>
       </c>
       <c r="K140" s="1">
-        <v>2.14</v>
+        <v>5.25</v>
       </c>
       <c r="L140" s="1">
-        <v>6.3900722355991852E-3</v>
+        <v>8.3894185829126947E-3</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B141" s="5" t="s">
-        <v>127</v>
+      <c r="B141" s="5">
+        <v>2015</v>
       </c>
       <c r="C141" s="1">
-        <v>0.41654530046900751</v>
+        <v>0.1669378291433963</v>
       </c>
       <c r="D141" s="1">
-        <v>9948</v>
+        <v>25819</v>
       </c>
       <c r="E141" s="1">
-        <v>21393</v>
+        <v>19901</v>
       </c>
       <c r="F141" s="1">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="G141" s="1">
-        <v>107.538</v>
+        <v>100.35899999999999</v>
       </c>
       <c r="H141" s="1">
-        <v>96.950833333333321</v>
+        <v>94.355833333333351</v>
       </c>
       <c r="I141" s="1">
-        <v>2.2118228566752045E-2</v>
+        <v>1.9109404561340377E-2</v>
       </c>
       <c r="J141" s="1">
-        <v>50.14</v>
+        <v>45.36</v>
       </c>
       <c r="K141" s="1">
-        <v>11.85</v>
+        <v>2.16</v>
       </c>
       <c r="L141" s="1">
-        <v>1.5231560984748824E-3</v>
+        <v>1.899422608240509E-3</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>127</v>
+        <v>96</v>
+      </c>
+      <c r="B142" s="5">
+        <v>2015</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1">
-        <v>31190</v>
+        <v>28761</v>
       </c>
       <c r="F142" s="1">
-        <v>1405</v>
+        <v>1384</v>
       </c>
       <c r="G142" s="1">
-        <v>108.393</v>
+        <v>100.08199999999999</v>
       </c>
       <c r="H142" s="1">
-        <v>96.168333333333337</v>
+        <v>93.063583333333341</v>
       </c>
       <c r="I142" s="1">
-        <v>2.7657925053354623E-2</v>
+        <v>2.3896289634584279E-2</v>
       </c>
       <c r="J142" s="1">
-        <v>53.4</v>
+        <v>50.73</v>
       </c>
       <c r="K142" s="1">
-        <v>10.84</v>
+        <v>2.52</v>
       </c>
       <c r="L142" s="1">
-        <v>4.0274633466861453E-3</v>
+        <v>3.2007444463180508E-3</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B143" s="5" t="s">
-        <v>127</v>
+      <c r="B143" s="5">
+        <v>2015</v>
       </c>
       <c r="C143" s="1">
-        <v>0.42194459396696088</v>
+        <v>0.22297447898337039</v>
       </c>
       <c r="D143" s="1">
-        <v>11230</v>
+        <v>23787</v>
       </c>
       <c r="E143" s="1">
-        <v>22030</v>
+        <v>19284</v>
       </c>
       <c r="F143" s="1">
-        <v>1163</v>
+        <v>1259</v>
       </c>
       <c r="G143" s="1">
-        <v>109.235</v>
+        <v>99.953999999999994</v>
       </c>
       <c r="H143" s="1">
-        <v>96.596666666666678</v>
+        <v>93.649833333333319</v>
       </c>
       <c r="I143" s="1">
-        <v>1.6738173835166008E-2</v>
+        <v>1.2016671325508573E-2</v>
       </c>
       <c r="J143" s="1">
-        <v>41.46</v>
+        <v>38.36</v>
       </c>
       <c r="K143" s="1">
-        <v>-3.06</v>
+        <v>-12.07</v>
       </c>
       <c r="L143" s="1">
-        <v>2.1015671224373007E-3</v>
+        <v>2.8612617818971012E-3</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B144" s="5" t="s">
-        <v>127</v>
+      <c r="B144" s="5">
+        <v>2015</v>
       </c>
       <c r="C144" s="1">
-        <v>0.38518100580882897</v>
+        <v>0.18506295018195915</v>
       </c>
       <c r="D144" s="1">
-        <v>12525</v>
+        <v>26887</v>
       </c>
       <c r="E144" s="1">
-        <v>27101</v>
+        <v>23857</v>
       </c>
       <c r="F144" s="1">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="G144" s="1">
-        <v>108.253</v>
+        <v>100.28</v>
       </c>
       <c r="H144" s="1">
-        <v>96.765833333333333</v>
+        <v>93.700583333333341</v>
       </c>
       <c r="I144" s="1">
-        <v>2.4241676181071991E-2</v>
+        <v>1.8351552383533594E-2</v>
       </c>
       <c r="J144" s="1">
-        <v>44.7</v>
+        <v>45.02</v>
       </c>
       <c r="K144" s="1">
-        <v>-4.33</v>
+        <v>-8.48</v>
       </c>
       <c r="L144" s="1">
-        <v>1.9625389576326101E-3</v>
+        <v>5.8240732375703921E-3</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B145" s="5" t="s">
-        <v>127</v>
+      <c r="B145" s="5">
+        <v>2015</v>
       </c>
       <c r="C145" s="1">
-        <v>0.54360621326328207</v>
+        <v>0.23605504181939335</v>
       </c>
       <c r="D145" s="1">
-        <v>11220</v>
+        <v>26877</v>
       </c>
       <c r="E145" s="1">
-        <v>22157</v>
+        <v>19932</v>
       </c>
       <c r="F145" s="1">
-        <v>1497</v>
+        <v>1506</v>
       </c>
       <c r="G145" s="1">
-        <v>109.235</v>
+        <v>99.953999999999994</v>
       </c>
       <c r="H145" s="1">
-        <v>96.134416666666667</v>
+        <v>92.76</v>
       </c>
       <c r="I145" s="1">
-        <v>1.9141575667996076E-2</v>
+        <v>1.594196167511458E-2</v>
       </c>
       <c r="J145" s="1">
-        <v>45.63</v>
+        <v>43.01</v>
       </c>
       <c r="K145" s="1">
-        <v>3.46</v>
+        <v>-2.78</v>
       </c>
       <c r="L145" s="1">
-        <v>1.529032504682662E-3</v>
+        <v>2.2662644319983447E-3</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B146" s="5" t="s">
-        <v>127</v>
+      <c r="B146" s="5">
+        <v>2015</v>
       </c>
       <c r="C146" s="1">
-        <v>0.47210573737350198</v>
+        <v>0.22747028913737483</v>
       </c>
       <c r="D146" s="1">
-        <v>11762</v>
+        <v>25002</v>
       </c>
       <c r="E146" s="1">
-        <v>20735</v>
+        <v>18417</v>
       </c>
       <c r="F146" s="1">
-        <v>1372</v>
+        <v>1359</v>
       </c>
       <c r="G146" s="1">
-        <v>108.253</v>
+        <v>100.28</v>
       </c>
       <c r="H146" s="1">
-        <v>96.468166666666676</v>
+        <v>93.4345</v>
       </c>
       <c r="I146" s="1">
-        <v>2.3899382453472832E-2</v>
+        <v>2.0286097320231587E-2</v>
       </c>
       <c r="J146" s="1">
-        <v>46.35</v>
+        <v>46.07</v>
       </c>
       <c r="K146" s="1">
-        <v>-3.65</v>
+        <v>-9.7899999999999991</v>
       </c>
       <c r="L146" s="1">
-        <v>2.5582777481122144E-3</v>
+        <v>4.1632905611455676E-3</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B147" s="5" t="s">
-        <v>127</v>
+      <c r="B147" s="5">
+        <v>2015</v>
       </c>
       <c r="C147" s="1">
-        <v>0.61377354488064284</v>
+        <v>0.19584233497948167</v>
       </c>
       <c r="D147" s="1">
-        <v>10233</v>
+        <v>24738</v>
       </c>
       <c r="E147" s="1">
-        <v>21134</v>
+        <v>19494</v>
       </c>
       <c r="F147" s="1">
-        <v>1693</v>
+        <v>1263</v>
       </c>
       <c r="G147" s="1">
-        <v>114.839</v>
+        <v>100.637</v>
       </c>
       <c r="H147" s="1">
-        <v>96.721749999999986</v>
+        <v>93.514583333333334</v>
       </c>
       <c r="I147" s="1">
-        <v>2.6723350777115591E-2</v>
+        <v>1.8764347739295337E-2</v>
       </c>
       <c r="J147" s="1">
-        <v>48.94</v>
+        <v>46.26</v>
       </c>
       <c r="K147" s="1">
-        <v>12.93</v>
+        <v>-0.2</v>
       </c>
       <c r="L147" s="1">
-        <v>2.829623665943388E-3</v>
+        <v>1.3035233057191336E-3</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B148" s="5" t="s">
-        <v>127</v>
+      <c r="B148" s="5">
+        <v>2015</v>
       </c>
       <c r="C148" s="1">
-        <v>0.38565197152931008</v>
+        <v>0.17419830713907863</v>
       </c>
       <c r="D148" s="1">
-        <v>11922</v>
+        <v>26594</v>
       </c>
       <c r="E148" s="1">
-        <v>22012</v>
+        <v>21609</v>
       </c>
       <c r="F148" s="1">
-        <v>1136</v>
+        <v>1107</v>
       </c>
       <c r="G148" s="1">
-        <v>108.253</v>
+        <v>100.28</v>
       </c>
       <c r="H148" s="1">
-        <v>96.091333333333338</v>
+        <v>92.625499999999988</v>
       </c>
       <c r="I148" s="1">
-        <v>2.8583167038384788E-2</v>
+        <v>2.4027416386367965E-2</v>
       </c>
       <c r="J148" s="1">
-        <v>51.5</v>
+        <v>49.57</v>
       </c>
       <c r="K148" s="1">
-        <v>0.46</v>
+        <v>-10.130000000000001</v>
       </c>
       <c r="L148" s="1">
-        <v>5.7257633264206804E-3</v>
+        <v>7.3300755219902263E-3</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B149" s="5" t="s">
-        <v>127</v>
+      <c r="B149" s="5">
+        <v>2015</v>
       </c>
       <c r="C149" s="1">
-        <v>0.56791782117047152</v>
+        <v>0.23006329422114416</v>
       </c>
       <c r="D149" s="1">
-        <v>10083</v>
+        <v>25099</v>
       </c>
       <c r="E149" s="1">
-        <v>20429</v>
+        <v>18594</v>
       </c>
       <c r="F149" s="1">
-        <v>1414</v>
+        <v>1379</v>
       </c>
       <c r="G149" s="1">
-        <v>113.831</v>
+        <v>101.029</v>
       </c>
       <c r="H149" s="1">
-        <v>96.824666666666687</v>
+        <v>93.765916666666669</v>
       </c>
       <c r="I149" s="1">
-        <v>2.4017893825774388E-2</v>
+        <v>1.8409666852092218E-2</v>
       </c>
       <c r="J149" s="1">
-        <v>46.95</v>
+        <v>42.69</v>
       </c>
       <c r="K149" s="1">
-        <v>3.43</v>
+        <v>0.24</v>
       </c>
       <c r="L149" s="1">
-        <v>2.3671481895594947E-3</v>
+        <v>1.983538331582092E-3</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B150" s="5" t="s">
-        <v>127</v>
+      <c r="B150" s="5">
+        <v>2015</v>
       </c>
       <c r="C150" s="1">
-        <v>0.3254905509802376</v>
+        <v>0.16103090576879181</v>
       </c>
       <c r="D150" s="1">
-        <v>12907</v>
+        <v>27859</v>
       </c>
       <c r="E150" s="1">
-        <v>28019</v>
+        <v>23763</v>
       </c>
       <c r="F150" s="1">
-        <v>1038</v>
+        <v>1072</v>
       </c>
       <c r="G150" s="1">
-        <v>108.253</v>
+        <v>100.28</v>
       </c>
       <c r="H150" s="1">
-        <v>96.09708333333333</v>
+        <v>92.48233333333333</v>
       </c>
       <c r="I150" s="1">
-        <v>3.0711060948081265E-2</v>
+        <v>2.0592048875898293E-2</v>
       </c>
       <c r="J150" s="1">
-        <v>54.17</v>
+        <v>47.41</v>
       </c>
       <c r="K150" s="1">
-        <v>3.3</v>
+        <v>-10.95</v>
       </c>
       <c r="L150" s="1">
-        <v>1.2799097065462754E-2</v>
+        <v>1.0911368481199042E-2</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B151" s="5" t="s">
-        <v>127</v>
+      <c r="B151" s="5">
+        <v>2015</v>
       </c>
       <c r="C151" s="1">
-        <v>0.41305780884196036</v>
+        <v>0.16926198314787222</v>
       </c>
       <c r="D151" s="1">
-        <v>12011</v>
+        <v>28105</v>
       </c>
       <c r="E151" s="1">
-        <v>30427</v>
+        <v>27832</v>
       </c>
       <c r="F151" s="1">
-        <v>1335</v>
+        <v>1238</v>
       </c>
       <c r="G151" s="1">
-        <v>130.708</v>
+        <v>102.068</v>
       </c>
       <c r="H151" s="1">
-        <v>97.07774999999998</v>
+        <v>93.565749999999994</v>
       </c>
       <c r="I151" s="1">
-        <v>2.7047299793190618E-2</v>
+        <v>2.0599898629230753E-2</v>
       </c>
       <c r="J151" s="1">
-        <v>50.04</v>
+        <v>48.24</v>
       </c>
       <c r="K151" s="1">
-        <v>15.11</v>
+        <v>-1.4</v>
       </c>
       <c r="L151" s="1">
-        <v>2.0065284419438574E-3</v>
+        <v>1.7771327164724984E-3</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B152" s="5" t="s">
-        <v>127</v>
+      <c r="B152" s="5">
+        <v>2015</v>
       </c>
       <c r="C152" s="1">
-        <v>0.28141179559792368</v>
+        <v>0.13130172547918134</v>
       </c>
       <c r="D152" s="1">
-        <v>11991</v>
+        <v>27027</v>
       </c>
       <c r="E152" s="1">
-        <v>25241</v>
+        <v>24012</v>
       </c>
       <c r="F152" s="1">
-        <v>878</v>
+        <v>893</v>
       </c>
       <c r="G152" s="1">
-        <v>111.958</v>
+        <v>99.885999999999996</v>
       </c>
       <c r="H152" s="1">
-        <v>96.762249999999995</v>
+        <v>93.596333333333305</v>
       </c>
       <c r="I152" s="1">
-        <v>2.7739797283238714E-2</v>
+        <v>1.8563038032994559E-2</v>
       </c>
       <c r="J152" s="1">
-        <v>51.43</v>
+        <v>49.73</v>
       </c>
       <c r="K152" s="1">
-        <v>0.45</v>
+        <v>-10.91</v>
       </c>
       <c r="L152" s="1">
-        <v>5.6029486074369115E-3</v>
+        <v>6.6795266749201049E-3</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B153" s="5" t="s">
-        <v>127</v>
+      <c r="B153" s="5">
+        <v>2015</v>
       </c>
       <c r="C153" s="1">
-        <v>0.31847263930513825</v>
+        <v>0.13881109149017085</v>
       </c>
       <c r="D153" s="1">
-        <v>9955</v>
+        <v>23767</v>
       </c>
       <c r="E153" s="1">
-        <v>18940</v>
+        <v>16982</v>
       </c>
       <c r="F153" s="1">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="G153" s="1">
-        <v>105.06699999999999</v>
+        <v>100.497</v>
       </c>
       <c r="H153" s="1">
-        <v>96.250833333333318</v>
+        <v>92.742249999999999</v>
       </c>
       <c r="I153" s="1">
-        <v>2.5717531943246275E-2</v>
+        <v>1.8536973712485812E-2</v>
       </c>
       <c r="J153" s="1">
-        <v>48.89</v>
+        <v>43.53</v>
       </c>
       <c r="K153" s="1">
-        <v>12</v>
+        <v>-3.67</v>
       </c>
       <c r="L153" s="1">
-        <v>3.6893121964064121E-3</v>
+        <v>4.7463767593395167E-3</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B154" s="5" t="s">
-        <v>127</v>
+      <c r="B154" s="5">
+        <v>2015</v>
       </c>
       <c r="C154" s="1">
-        <v>0.4066469167938504</v>
+        <v>0.17053215555121251</v>
       </c>
       <c r="D154" s="1">
-        <v>11634</v>
+        <v>26655</v>
       </c>
       <c r="E154" s="1">
-        <v>23825</v>
+        <v>21862</v>
       </c>
       <c r="F154" s="1">
-        <v>1187</v>
+        <v>1103</v>
       </c>
       <c r="G154" s="1">
-        <v>111.364</v>
+        <v>100.91800000000001</v>
       </c>
       <c r="H154" s="1">
-        <v>96.719916666666663</v>
+        <v>93.682916666666657</v>
       </c>
       <c r="I154" s="1">
-        <v>2.5286638152642912E-2</v>
+        <v>1.8034730263455371E-2</v>
       </c>
       <c r="J154" s="1">
-        <v>51.35</v>
+        <v>47.56</v>
       </c>
       <c r="K154" s="1">
-        <v>11.81</v>
+        <v>-0.91</v>
       </c>
       <c r="L154" s="1">
-        <v>1.2963179546512421E-3</v>
+        <v>1.2975191826415525E-3</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B155" s="5" t="s">
-        <v>127</v>
+      <c r="B155" s="5">
+        <v>2015</v>
       </c>
       <c r="C155" s="1">
-        <v>0.39453812313112369</v>
+        <v>0.17739168028430216</v>
       </c>
       <c r="D155" s="1">
-        <v>12905</v>
+        <v>28899</v>
       </c>
       <c r="E155" s="1">
-        <v>27580</v>
+        <v>23737</v>
       </c>
       <c r="F155" s="1">
-        <v>1258</v>
+        <v>1225</v>
       </c>
       <c r="G155" s="1">
-        <v>108.253</v>
+        <v>100.28</v>
       </c>
       <c r="H155" s="1">
-        <v>96.508583333333334</v>
+        <v>93.282416666666663</v>
       </c>
       <c r="I155" s="1">
-        <v>2.6817299572377471E-2</v>
+        <v>1.747902289240872E-2</v>
       </c>
       <c r="J155" s="1">
-        <v>52.24</v>
+        <v>48.94</v>
       </c>
       <c r="K155" s="1">
-        <v>0.81</v>
+        <v>-4.8099999999999996</v>
       </c>
       <c r="L155" s="1">
-        <v>1.8966973228867502E-3</v>
+        <v>2.1319125649834313E-3</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B156" s="5" t="s">
-        <v>127</v>
+      <c r="B156" s="5">
+        <v>2015</v>
       </c>
       <c r="C156" s="1">
-        <v>0.37296775168327345</v>
+        <v>0.19941929093767094</v>
       </c>
       <c r="D156" s="1">
-        <v>10971</v>
+        <v>22664</v>
       </c>
       <c r="E156" s="1">
-        <v>19328</v>
+        <v>18984</v>
       </c>
       <c r="F156" s="1">
-        <v>1011</v>
+        <v>1080</v>
       </c>
       <c r="G156" s="1">
-        <v>108.253</v>
+        <v>100.28</v>
       </c>
       <c r="H156" s="1">
-        <v>96.177250000000001</v>
+        <v>93.281750000000002</v>
       </c>
       <c r="I156" s="1">
-        <v>2.1896430228760977E-2</v>
+        <v>1.6370832333893019E-2</v>
       </c>
       <c r="J156" s="1">
-        <v>42.97</v>
+        <v>41.54</v>
       </c>
       <c r="K156" s="1">
-        <v>-11.71</v>
+        <v>-15.51</v>
       </c>
       <c r="L156" s="1">
-        <v>2.7728603429409506E-3</v>
+        <v>5.4569441112976734E-3</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B157" s="5" t="s">
-        <v>127</v>
+      <c r="B157" s="5">
+        <v>2015</v>
       </c>
       <c r="C157" s="1">
-        <v>0.38394654968241226</v>
+        <v>0.16962166120949571</v>
       </c>
       <c r="D157" s="1">
-        <v>13063</v>
+        <v>30105</v>
       </c>
       <c r="E157" s="1">
-        <v>28597</v>
+        <v>25194</v>
       </c>
       <c r="F157" s="1">
-        <v>1305</v>
+        <v>1285</v>
       </c>
       <c r="G157" s="1">
-        <v>111.958</v>
+        <v>99.885999999999996</v>
       </c>
       <c r="H157" s="1">
-        <v>96.403083333333328</v>
+        <v>93.465249999999969</v>
       </c>
       <c r="I157" s="1">
-        <v>2.8521875009818697E-2</v>
+        <v>2.3058432687660956E-2</v>
       </c>
       <c r="J157" s="1">
-        <v>52.85</v>
+        <v>49.91</v>
       </c>
       <c r="K157" s="1">
-        <v>8.32</v>
+        <v>-5.07</v>
       </c>
       <c r="L157" s="1">
-        <v>4.7045959881065469E-3</v>
+        <v>3.3493513639035739E-3</v>
       </c>
     </row>
   </sheetData>
@@ -8222,8 +8165,8 @@
   </sheetPr>
   <dimension ref="A1:U157"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:Q157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11344,9 +11287,9 @@
       <c r="H57" s="34">
         <v>2015</v>
       </c>
-      <c r="I57" s="28">
+      <c r="I57" s="28" t="e">
         <f t="shared" si="1"/>
-        <v>0.24111658940336342</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J57" s="28">
         <f t="shared" si="4"/>
@@ -11370,8 +11313,8 @@
       <c r="O57" s="34">
         <v>1826</v>
       </c>
-      <c r="P57" s="35">
-        <v>31957.49993184744</v>
+      <c r="P57" s="35" t="s">
+        <v>94</v>
       </c>
       <c r="Q57" s="31">
         <v>2.2124166666666664E-2</v>
@@ -11382,9 +11325,9 @@
       <c r="T57" s="47">
         <v>0.24111658940336342</v>
       </c>
-      <c r="U57" t="str" cm="1">
+      <c r="U57" t="e" cm="1">
         <f t="array" ref="U57">_xlfn.IFS(T57=Tabla58[[#This Row],[Accesibilidad]],"OK",S57=Tabla58[[#This Row],[Provincias]],"OK")</f>
-        <v>OK</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="58" spans="5:21" x14ac:dyDescent="0.3">
@@ -12256,9 +12199,9 @@
       <c r="H73" s="34">
         <v>2015</v>
       </c>
-      <c r="I73" s="28">
+      <c r="I73" s="28" t="e">
         <f t="shared" si="8"/>
-        <v>0.35024241918270838</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J73" s="28">
         <f>K73*12</f>
@@ -12282,9 +12225,7 @@
       <c r="O73" s="34">
         <v>2874</v>
       </c>
-      <c r="P73" s="35">
-        <v>34627.180851832949</v>
-      </c>
+      <c r="P73" s="35"/>
       <c r="Q73" s="31">
         <v>2.2124166666666664E-2</v>
       </c>
@@ -12294,9 +12235,9 @@
       <c r="T73" s="47">
         <v>0.35024241918270838</v>
       </c>
-      <c r="U73" t="str" cm="1">
+      <c r="U73" t="e" cm="1">
         <f t="array" ref="U73">_xlfn.IFS(T73=Tabla58[[#This Row],[Accesibilidad]],"OK",S73=Tabla58[[#This Row],[Provincias]],"OK")</f>
-        <v>OK</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="74" spans="5:21" x14ac:dyDescent="0.3">
@@ -14135,7 +14076,7 @@
       </c>
       <c r="I106" s="28">
         <f t="shared" si="8"/>
-        <v>0.42825524174665841</v>
+        <v>0.16590703272276888</v>
       </c>
       <c r="J106" s="28">
         <f t="shared" ref="J106:J137" si="11">K106*12</f>
@@ -14160,7 +14101,7 @@
         <v>1092</v>
       </c>
       <c r="P106" s="34">
-        <v>10351</v>
+        <v>26719</v>
       </c>
       <c r="Q106" s="42">
         <v>1.9205833299999999E-2</v>
@@ -14188,7 +14129,7 @@
       </c>
       <c r="I107" s="28">
         <f t="shared" si="8"/>
-        <v>0.6206038427674393</v>
+        <v>0.24014144959197922</v>
       </c>
       <c r="J107" s="28">
         <f t="shared" si="11"/>
@@ -14213,7 +14154,7 @@
         <v>1516</v>
       </c>
       <c r="P107" s="34">
-        <v>9736</v>
+        <v>25161</v>
       </c>
       <c r="Q107" s="42">
         <v>1.9205833299999999E-2</v>
@@ -14241,7 +14182,7 @@
       </c>
       <c r="I108" s="28">
         <f t="shared" si="8"/>
-        <v>0.48523526621748997</v>
+        <v>0.17811986465667512</v>
       </c>
       <c r="J108" s="28">
         <f t="shared" si="11"/>
@@ -14266,7 +14207,7 @@
         <v>1087</v>
       </c>
       <c r="P108" s="34">
-        <v>9072</v>
+        <v>24714</v>
       </c>
       <c r="Q108" s="42">
         <v>1.9205833299999999E-2</v>
@@ -14294,7 +14235,7 @@
       </c>
       <c r="I109" s="28" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J109" s="28">
         <f t="shared" si="11"/>
@@ -14318,7 +14259,9 @@
       <c r="O109" s="34">
         <v>1911</v>
       </c>
-      <c r="P109" s="34"/>
+      <c r="P109" s="34" t="s">
+        <v>94</v>
+      </c>
       <c r="Q109" s="42">
         <v>1.9205833299999999E-2</v>
       </c>
@@ -14330,7 +14273,7 @@
       </c>
       <c r="U109" t="e" cm="1">
         <f t="array" ref="U109">_xlfn.IFS(T109=Tabla58[[#This Row],[Accesibilidad]],"OK",S109=Tabla58[[#This Row],[Provincias]],"OK")</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="110" spans="5:21" x14ac:dyDescent="0.3">
@@ -14345,7 +14288,7 @@
       </c>
       <c r="I110" s="28">
         <f t="shared" si="8"/>
-        <v>0.39462756240083163</v>
+        <v>0.17207450109342873</v>
       </c>
       <c r="J110" s="28">
         <f t="shared" si="11"/>
@@ -14370,7 +14313,7 @@
         <v>1348</v>
       </c>
       <c r="P110" s="34">
-        <v>12923</v>
+        <v>29637</v>
       </c>
       <c r="Q110" s="42">
         <v>1.9205833299999999E-2</v>
@@ -14398,7 +14341,7 @@
       </c>
       <c r="I111" s="28">
         <f t="shared" si="8"/>
-        <v>0.30442703463032089</v>
+        <v>0.1339612641308231</v>
       </c>
       <c r="J111" s="28">
         <f t="shared" si="11"/>
@@ -14423,7 +14366,7 @@
         <v>814</v>
       </c>
       <c r="P111" s="34">
-        <v>10822</v>
+        <v>24593</v>
       </c>
       <c r="Q111" s="42">
         <v>1.9205833299999999E-2</v>
@@ -14451,7 +14394,7 @@
       </c>
       <c r="I112" s="28">
         <f t="shared" si="8"/>
-        <v>0.427095475222803</v>
+        <v>0.16913196342191489</v>
       </c>
       <c r="J112" s="28">
         <f t="shared" si="11"/>
@@ -14476,7 +14419,7 @@
         <v>917</v>
       </c>
       <c r="P112" s="34">
-        <v>9417</v>
+        <v>23780</v>
       </c>
       <c r="Q112" s="42">
         <v>1.9205833299999999E-2</v>
@@ -14504,7 +14447,7 @@
       </c>
       <c r="I113" s="28">
         <f t="shared" si="8"/>
-        <v>0.66221968675558507</v>
+        <v>0.25381155146733064</v>
       </c>
       <c r="J113" s="28">
         <f t="shared" si="11"/>
@@ -14529,7 +14472,7 @@
         <v>2530</v>
       </c>
       <c r="P113" s="34">
-        <v>14198</v>
+        <v>37044</v>
       </c>
       <c r="Q113" s="42">
         <v>1.9205833299999999E-2</v>
@@ -14557,7 +14500,7 @@
       </c>
       <c r="I114" s="28">
         <f t="shared" si="8"/>
-        <v>0.68105514069005046</v>
+        <v>0.28181269117707597</v>
       </c>
       <c r="J114" s="28">
         <f t="shared" si="11"/>
@@ -14582,7 +14525,7 @@
         <v>2511</v>
       </c>
       <c r="P114" s="34">
-        <v>15047</v>
+        <v>36364</v>
       </c>
       <c r="Q114" s="42">
         <v>1.9205833299999999E-2</v>
@@ -14610,7 +14553,7 @@
       </c>
       <c r="I115" s="28">
         <f t="shared" si="8"/>
-        <v>0.36655560386387587</v>
+        <v>0.15624373947027434</v>
       </c>
       <c r="J115" s="28">
         <f t="shared" si="11"/>
@@ -14635,7 +14578,7 @@
         <v>1206</v>
       </c>
       <c r="P115" s="34">
-        <v>13316</v>
+        <v>31240</v>
       </c>
       <c r="Q115" s="42">
         <v>1.9205833299999999E-2</v>
@@ -14663,7 +14606,7 @@
       </c>
       <c r="I116" s="28">
         <f t="shared" si="8"/>
-        <v>0.3917554389288227</v>
+        <v>0.16897565991116512</v>
       </c>
       <c r="J116" s="28">
         <f t="shared" si="11"/>
@@ -14688,7 +14631,7 @@
         <v>894</v>
       </c>
       <c r="P116" s="34">
-        <v>10009</v>
+        <v>23205</v>
       </c>
       <c r="Q116" s="42">
         <v>1.9205833299999999E-2</v>
@@ -14716,7 +14659,7 @@
       </c>
       <c r="I117" s="28">
         <f t="shared" si="8"/>
-        <v>0.62860432504069419</v>
+        <v>0.23074304291881728</v>
       </c>
       <c r="J117" s="28">
         <f t="shared" si="11"/>
@@ -14741,7 +14684,7 @@
         <v>1476</v>
       </c>
       <c r="P117" s="34">
-        <v>9509</v>
+        <v>25905</v>
       </c>
       <c r="Q117" s="42">
         <v>1.9205833299999999E-2</v>
@@ -14769,7 +14712,7 @@
       </c>
       <c r="I118" s="28">
         <f t="shared" si="8"/>
-        <v>0.42265500859145611</v>
+        <v>0.1708353039522218</v>
       </c>
       <c r="J118" s="28">
         <f t="shared" si="11"/>
@@ -14794,7 +14737,7 @@
         <v>1461</v>
       </c>
       <c r="P118" s="34">
-        <v>12389</v>
+        <v>30651</v>
       </c>
       <c r="Q118" s="42">
         <v>1.9205833299999999E-2</v>
@@ -14805,9 +14748,9 @@
       <c r="T118" s="46">
         <v>0.42265500859145611</v>
       </c>
-      <c r="U118" t="str" cm="1">
+      <c r="U118" t="e" cm="1">
         <f t="array" ref="U118">_xlfn.IFS(T118=Tabla58[[#This Row],[Accesibilidad]],"OK",S118=Tabla58[[#This Row],[Provincias]],"OK")</f>
-        <v>OK</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="119" spans="6:21" x14ac:dyDescent="0.3">
@@ -14822,7 +14765,7 @@
       </c>
       <c r="I119" s="28">
         <f t="shared" si="8"/>
-        <v>0.38113941753883201</v>
+        <v>0.15296560788642202</v>
       </c>
       <c r="J119" s="28">
         <f t="shared" si="11"/>
@@ -14847,7 +14790,7 @@
         <v>1096</v>
       </c>
       <c r="P119" s="34">
-        <v>11461</v>
+        <v>28557</v>
       </c>
       <c r="Q119" s="42">
         <v>1.9205833299999999E-2</v>
@@ -14875,7 +14818,7 @@
       </c>
       <c r="I120" s="28">
         <f t="shared" si="8"/>
-        <v>0.72289784077486707</v>
+        <v>0.22312576115369853</v>
       </c>
       <c r="J120" s="28">
         <f t="shared" si="11"/>
@@ -14900,7 +14843,7 @@
         <v>2116</v>
       </c>
       <c r="P120" s="34">
-        <v>11448</v>
+        <v>37090</v>
       </c>
       <c r="Q120" s="42">
         <v>1.9205833299999999E-2</v>
@@ -14928,7 +14871,7 @@
       </c>
       <c r="I121" s="28">
         <f t="shared" si="8"/>
-        <v>0.33405560689572805</v>
+        <v>0.1300058418773514</v>
       </c>
       <c r="J121" s="28">
         <f t="shared" si="11"/>
@@ -14953,7 +14896,7 @@
         <v>823</v>
       </c>
       <c r="P121" s="34">
-        <v>10001</v>
+        <v>25698</v>
       </c>
       <c r="Q121" s="42">
         <v>1.9205833299999999E-2</v>
@@ -14981,7 +14924,7 @@
       </c>
       <c r="I122" s="28">
         <f t="shared" si="8"/>
-        <v>0.50590319907555614</v>
+        <v>0.19457815349059854</v>
       </c>
       <c r="J122" s="28">
         <f t="shared" si="11"/>
@@ -15006,7 +14949,7 @@
         <v>1213</v>
       </c>
       <c r="P122" s="34">
-        <v>9710</v>
+        <v>25246</v>
       </c>
       <c r="Q122" s="42">
         <v>1.9205833299999999E-2</v>
@@ -15034,7 +14977,7 @@
       </c>
       <c r="I123" s="28">
         <f t="shared" si="8"/>
-        <v>0.44257823044529271</v>
+        <v>0.17686611860949675</v>
       </c>
       <c r="J123" s="28">
         <f t="shared" si="11"/>
@@ -15059,7 +15002,7 @@
         <v>1326</v>
       </c>
       <c r="P123" s="34">
-        <v>12207</v>
+        <v>30546</v>
       </c>
       <c r="Q123" s="42">
         <v>1.9205833299999999E-2</v>
@@ -15087,7 +15030,7 @@
       </c>
       <c r="I124" s="28">
         <f t="shared" si="8"/>
-        <v>0.32278071603109004</v>
+        <v>0.13174933738796479</v>
       </c>
       <c r="J124" s="28">
         <f t="shared" si="11"/>
@@ -15112,7 +15055,7 @@
         <v>812</v>
       </c>
       <c r="P124" s="34">
-        <v>10212</v>
+        <v>25019</v>
       </c>
       <c r="Q124" s="42">
         <v>1.9205833299999999E-2</v>
@@ -15140,7 +15083,7 @@
       </c>
       <c r="I125" s="28">
         <f t="shared" si="8"/>
-        <v>0.73990764438261214</v>
+        <v>0.31107951363558195</v>
       </c>
       <c r="J125" s="28">
         <f t="shared" si="11"/>
@@ -15165,7 +15108,7 @@
         <v>2881</v>
       </c>
       <c r="P125" s="34">
-        <v>15891</v>
+        <v>37797</v>
       </c>
       <c r="Q125" s="42">
         <v>1.9205833299999999E-2</v>
@@ -15193,7 +15136,7 @@
       </c>
       <c r="I126" s="28">
         <f t="shared" si="8"/>
-        <v>0.59255984028917008</v>
+        <v>0.22223467282192563</v>
       </c>
       <c r="J126" s="28">
         <f t="shared" si="11"/>
@@ -15218,7 +15161,7 @@
         <v>1970</v>
       </c>
       <c r="P126" s="34">
-        <v>12355</v>
+        <v>32943</v>
       </c>
       <c r="Q126" s="42">
         <v>1.9205833299999999E-2</v>
@@ -15246,7 +15189,7 @@
       </c>
       <c r="I127" s="28">
         <f t="shared" si="8"/>
-        <v>0.48383700223059262</v>
+        <v>0.18986616780664581</v>
       </c>
       <c r="J127" s="28">
         <f t="shared" si="11"/>
@@ -15271,7 +15214,7 @@
         <v>1181</v>
       </c>
       <c r="P127" s="34">
-        <v>9885</v>
+        <v>25190</v>
       </c>
       <c r="Q127" s="42">
         <v>1.9205833299999999E-2</v>
@@ -15299,7 +15242,7 @@
       </c>
       <c r="I128" s="28">
         <f t="shared" si="8"/>
-        <v>0.35175012767792047</v>
+        <v>0.13673702000232646</v>
       </c>
       <c r="J128" s="28">
         <f t="shared" si="11"/>
@@ -15324,7 +15267,7 @@
         <v>1047</v>
       </c>
       <c r="P128" s="34">
-        <v>12083</v>
+        <v>31083</v>
       </c>
       <c r="Q128" s="42">
         <v>1.9205833299999999E-2</v>
@@ -15352,7 +15295,7 @@
       </c>
       <c r="I129" s="28">
         <f t="shared" si="8"/>
-        <v>0.52686032274999917</v>
+        <v>0.1977879275581689</v>
       </c>
       <c r="J129" s="28">
         <f t="shared" si="11"/>
@@ -15377,7 +15320,7 @@
         <v>1225</v>
       </c>
       <c r="P129" s="34">
-        <v>9416</v>
+        <v>25082</v>
       </c>
       <c r="Q129" s="42">
         <v>1.9205833299999999E-2</v>
@@ -15405,7 +15348,7 @@
       </c>
       <c r="I130" s="28">
         <f t="shared" si="8"/>
-        <v>0.42047984932564236</v>
+        <v>0.16926600034138989</v>
       </c>
       <c r="J130" s="28">
         <f t="shared" si="11"/>
@@ -15430,7 +15373,7 @@
         <v>1369</v>
       </c>
       <c r="P130" s="34">
-        <v>12513</v>
+        <v>31084</v>
       </c>
       <c r="Q130" s="42">
         <v>1.9205833299999999E-2</v>
@@ -15458,7 +15401,7 @@
       </c>
       <c r="I131" s="28">
         <f t="shared" ref="I131:I157" si="14">J131/P131</f>
-        <v>0.89147732322482021</v>
+        <v>0.32170334550877761</v>
       </c>
       <c r="J131" s="28">
         <f t="shared" si="11"/>
@@ -15483,7 +15426,7 @@
         <v>2867</v>
       </c>
       <c r="P131" s="34">
-        <v>12893</v>
+        <v>35728</v>
       </c>
       <c r="Q131" s="42">
         <v>1.9205833299999999E-2</v>
@@ -15511,7 +15454,7 @@
       </c>
       <c r="I132" s="28">
         <f t="shared" si="14"/>
-        <v>0.38058928313556967</v>
+        <v>0.14834475493740312</v>
       </c>
       <c r="J132" s="28">
         <f t="shared" si="11"/>
@@ -15536,7 +15479,7 @@
         <v>885</v>
       </c>
       <c r="P132" s="34">
-        <v>9417</v>
+        <v>24160</v>
       </c>
       <c r="Q132" s="42">
         <v>1.9205833299999999E-2</v>
@@ -15564,7 +15507,7 @@
       </c>
       <c r="I133" s="28">
         <f t="shared" si="14"/>
-        <v>0.39173053705794136</v>
+        <v>0.16116233546001288</v>
       </c>
       <c r="J133" s="28">
         <f t="shared" si="11"/>
@@ -15589,7 +15532,7 @@
         <v>1200</v>
       </c>
       <c r="P133" s="34">
-        <v>12460</v>
+        <v>30286</v>
       </c>
       <c r="Q133" s="42">
         <v>1.9205833299999999E-2</v>
@@ -15617,7 +15560,7 @@
       </c>
       <c r="I134" s="28">
         <f t="shared" si="14"/>
-        <v>0.65951800547547668</v>
+        <v>0.23959612614049391</v>
       </c>
       <c r="J134" s="28">
         <f t="shared" si="11"/>
@@ -15642,7 +15585,7 @@
         <v>1931</v>
       </c>
       <c r="P134" s="34">
-        <v>10862</v>
+        <v>29899</v>
       </c>
       <c r="Q134" s="42">
         <v>1.9205833299999999E-2</v>
@@ -15670,7 +15613,7 @@
       </c>
       <c r="I135" s="28">
         <f t="shared" si="14"/>
-        <v>0.33214291713814914</v>
+        <v>0.14493379746733046</v>
       </c>
       <c r="J135" s="28">
         <f t="shared" si="11"/>
@@ -15695,7 +15638,7 @@
         <v>1003</v>
       </c>
       <c r="P135" s="34">
-        <v>12222</v>
+        <v>28009</v>
       </c>
       <c r="Q135" s="42">
         <v>1.9205833299999999E-2</v>
@@ -15723,7 +15666,7 @@
       </c>
       <c r="I136" s="28">
         <f t="shared" si="14"/>
-        <v>0.33380334949830875</v>
+        <v>0.12858333257029597</v>
       </c>
       <c r="J136" s="28">
         <f t="shared" si="11"/>
@@ -15748,7 +15691,7 @@
         <v>1089</v>
       </c>
       <c r="P136" s="34">
-        <v>12124</v>
+        <v>31474</v>
       </c>
       <c r="Q136" s="42">
         <v>1.9205833299999999E-2</v>
@@ -15776,7 +15719,7 @@
       </c>
       <c r="I137" s="28">
         <f t="shared" si="14"/>
-        <v>0.38856138458666845</v>
+        <v>0.16326290151943831</v>
       </c>
       <c r="J137" s="28">
         <f t="shared" si="11"/>
@@ -15801,7 +15744,7 @@
         <v>1081</v>
       </c>
       <c r="P137" s="34">
-        <v>11335</v>
+        <v>26977</v>
       </c>
       <c r="Q137" s="42">
         <v>1.9205833299999999E-2</v>
@@ -15829,7 +15772,7 @@
       </c>
       <c r="I138" s="28">
         <f t="shared" si="14"/>
-        <v>0.64416707919264649</v>
+        <v>0.23848771655809259</v>
       </c>
       <c r="J138" s="28">
         <f t="shared" ref="J138:J157" si="15">K138*12</f>
@@ -15854,7 +15797,7 @@
         <v>2658</v>
       </c>
       <c r="P138" s="34">
-        <v>15153</v>
+        <v>40929</v>
       </c>
       <c r="Q138" s="42">
         <v>1.9205833299999999E-2</v>
@@ -15882,7 +15825,7 @@
       </c>
       <c r="I139" s="28">
         <f t="shared" si="14"/>
-        <v>0.83655386150988997</v>
+        <v>0.3154240514789553</v>
       </c>
       <c r="J139" s="28">
         <f t="shared" si="15"/>
@@ -15907,7 +15850,7 @@
         <v>2031</v>
       </c>
       <c r="P139" s="34">
-        <v>9832</v>
+        <v>26076</v>
       </c>
       <c r="Q139" s="42">
         <v>1.9205833299999999E-2</v>
@@ -15935,7 +15878,7 @@
       </c>
       <c r="I140" s="28">
         <f t="shared" si="14"/>
-        <v>0.62934431001601454</v>
+        <v>0.18175438385696052</v>
       </c>
       <c r="J140" s="28">
         <f t="shared" si="15"/>
@@ -15960,7 +15903,7 @@
         <v>1758</v>
       </c>
       <c r="P140" s="34">
-        <v>10925</v>
+        <v>37829</v>
       </c>
       <c r="Q140" s="42">
         <v>1.9205833299999999E-2</v>
@@ -15988,7 +15931,7 @@
       </c>
       <c r="I141" s="28">
         <f t="shared" si="14"/>
-        <v>0.41654530046900751</v>
+        <v>0.14523825484790881</v>
       </c>
       <c r="J141" s="28">
         <f t="shared" si="15"/>
@@ -16013,7 +15956,7 @@
         <v>1006</v>
       </c>
       <c r="P141" s="34">
-        <v>9948</v>
+        <v>28531</v>
       </c>
       <c r="Q141" s="42">
         <v>1.9205833299999999E-2</v>
@@ -16041,7 +15984,7 @@
       </c>
       <c r="I142" s="28" t="e">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J142" s="28">
         <f t="shared" si="15"/>
@@ -16065,7 +16008,9 @@
       <c r="O142" s="34">
         <v>1405</v>
       </c>
-      <c r="P142" s="34"/>
+      <c r="P142" s="34" t="s">
+        <v>94</v>
+      </c>
       <c r="Q142" s="42">
         <v>1.9205833299999999E-2</v>
       </c>
@@ -16077,7 +16022,7 @@
       </c>
       <c r="U142" t="e" cm="1">
         <f t="array" ref="U142">_xlfn.IFS(T142=Tabla58[[#This Row],[Accesibilidad]],"OK",S142=Tabla58[[#This Row],[Provincias]],"OK")</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="143" spans="6:21" x14ac:dyDescent="0.3">
@@ -16092,7 +16037,7 @@
       </c>
       <c r="I143" s="28">
         <f t="shared" si="14"/>
-        <v>0.42194459396696088</v>
+        <v>0.18479205172174443</v>
       </c>
       <c r="J143" s="28">
         <f t="shared" si="15"/>
@@ -16117,7 +16062,7 @@
         <v>1163</v>
       </c>
       <c r="P143" s="34">
-        <v>11230</v>
+        <v>25642</v>
       </c>
       <c r="Q143" s="42">
         <v>1.9205833299999999E-2</v>
@@ -16145,7 +16090,7 @@
       </c>
       <c r="I144" s="28">
         <f t="shared" si="14"/>
-        <v>0.38518100580882897</v>
+        <v>0.1665248730715399</v>
       </c>
       <c r="J144" s="28">
         <f t="shared" si="15"/>
@@ -16170,7 +16115,7 @@
         <v>1192</v>
       </c>
       <c r="P144" s="34">
-        <v>12525</v>
+        <v>28971</v>
       </c>
       <c r="Q144" s="42">
         <v>1.9205833299999999E-2</v>
@@ -16198,7 +16143,7 @@
       </c>
       <c r="I145" s="28">
         <f t="shared" si="14"/>
-        <v>0.54360621326328207</v>
+        <v>0.20938795402567972</v>
       </c>
       <c r="J145" s="28">
         <f t="shared" si="15"/>
@@ -16223,7 +16168,7 @@
         <v>1497</v>
       </c>
       <c r="P145" s="34">
-        <v>11220</v>
+        <v>29129</v>
       </c>
       <c r="Q145" s="42">
         <v>1.9205833299999999E-2</v>
@@ -16251,7 +16196,7 @@
       </c>
       <c r="I146" s="28">
         <f t="shared" si="14"/>
-        <v>0.47210573737350198</v>
+        <v>0.20574707039857462</v>
       </c>
       <c r="J146" s="28">
         <f t="shared" si="15"/>
@@ -16276,7 +16221,7 @@
         <v>1372</v>
       </c>
       <c r="P146" s="34">
-        <v>11762</v>
+        <v>26989</v>
       </c>
       <c r="Q146" s="42">
         <v>1.9205833299999999E-2</v>
@@ -16304,7 +16249,7 @@
       </c>
       <c r="I147" s="28">
         <f t="shared" si="14"/>
-        <v>0.61377354488064284</v>
+        <v>0.22539905561685333</v>
       </c>
       <c r="J147" s="28">
         <f t="shared" si="15"/>
@@ -16329,7 +16274,7 @@
         <v>1693</v>
       </c>
       <c r="P147" s="34">
-        <v>10233</v>
+        <v>27865</v>
       </c>
       <c r="Q147" s="42">
         <v>1.9205833299999999E-2</v>
@@ -16357,7 +16302,7 @@
       </c>
       <c r="I148" s="28">
         <f t="shared" si="14"/>
-        <v>0.38565197152931008</v>
+        <v>0.15768375075699412</v>
       </c>
       <c r="J148" s="28">
         <f t="shared" si="15"/>
@@ -16382,7 +16327,7 @@
         <v>1136</v>
       </c>
       <c r="P148" s="34">
-        <v>11922</v>
+        <v>29158</v>
       </c>
       <c r="Q148" s="42">
         <v>1.9205833299999999E-2</v>
@@ -16410,7 +16355,7 @@
       </c>
       <c r="I149" s="28">
         <f t="shared" si="14"/>
-        <v>0.56791782117047152</v>
+        <v>0.20796496789038912</v>
       </c>
       <c r="J149" s="28">
         <f t="shared" si="15"/>
@@ -16435,7 +16380,7 @@
         <v>1414</v>
       </c>
       <c r="P149" s="34">
-        <v>10083</v>
+        <v>27535</v>
       </c>
       <c r="Q149" s="42">
         <v>1.9205833299999999E-2</v>
@@ -16463,7 +16408,7 @@
       </c>
       <c r="I150" s="28">
         <f t="shared" si="14"/>
-        <v>0.3254905509802376</v>
+        <v>0.13910027619038232</v>
       </c>
       <c r="J150" s="28">
         <f t="shared" si="15"/>
@@ -16488,7 +16433,7 @@
         <v>1038</v>
       </c>
       <c r="P150" s="34">
-        <v>12907</v>
+        <v>30202</v>
       </c>
       <c r="Q150" s="42">
         <v>1.9205833299999999E-2</v>
@@ -16516,7 +16461,7 @@
       </c>
       <c r="I151" s="28">
         <f t="shared" si="14"/>
-        <v>0.41305780884196036</v>
+        <v>0.16028810228743817</v>
       </c>
       <c r="J151" s="28">
         <f t="shared" si="15"/>
@@ -16541,7 +16486,7 @@
         <v>1335</v>
       </c>
       <c r="P151" s="34">
-        <v>12011</v>
+        <v>30952</v>
       </c>
       <c r="Q151" s="42">
         <v>1.9205833299999999E-2</v>
@@ -16569,7 +16514,7 @@
       </c>
       <c r="I152" s="28">
         <f t="shared" si="14"/>
-        <v>0.28141179559792368</v>
+        <v>0.11525407613275165</v>
       </c>
       <c r="J152" s="28">
         <f t="shared" si="15"/>
@@ -16594,7 +16539,7 @@
         <v>878</v>
       </c>
       <c r="P152" s="34">
-        <v>11991</v>
+        <v>29278</v>
       </c>
       <c r="Q152" s="42">
         <v>1.9205833299999999E-2</v>
@@ -16622,7 +16567,7 @@
       </c>
       <c r="I153" s="28">
         <f t="shared" si="14"/>
-        <v>0.31847263930513825</v>
+        <v>0.11968723335281253</v>
       </c>
       <c r="J153" s="28">
         <f t="shared" si="15"/>
@@ -16647,7 +16592,7 @@
         <v>781</v>
       </c>
       <c r="P153" s="34">
-        <v>9955</v>
+        <v>26489</v>
       </c>
       <c r="Q153" s="42">
         <v>1.9205833299999999E-2</v>
@@ -16675,7 +16620,7 @@
       </c>
       <c r="I154" s="28">
         <f t="shared" si="14"/>
-        <v>0.4066469167938504</v>
+        <v>0.15923696499426643</v>
       </c>
       <c r="J154" s="28">
         <f t="shared" si="15"/>
@@ -16700,7 +16645,7 @@
         <v>1187</v>
       </c>
       <c r="P154" s="34">
-        <v>11634</v>
+        <v>29710</v>
       </c>
       <c r="Q154" s="42">
         <v>1.9205833299999999E-2</v>
@@ -16728,7 +16673,7 @@
       </c>
       <c r="I155" s="28">
         <f t="shared" si="14"/>
-        <v>0.39453812313112369</v>
+        <v>0.16268898514209965</v>
       </c>
       <c r="J155" s="28">
         <f t="shared" si="15"/>
@@ -16753,7 +16698,7 @@
         <v>1258</v>
       </c>
       <c r="P155" s="34">
-        <v>12905</v>
+        <v>31296</v>
       </c>
       <c r="Q155" s="42">
         <v>1.9205833299999999E-2</v>
@@ -16781,7 +16726,7 @@
       </c>
       <c r="I156" s="28">
         <f t="shared" si="14"/>
-        <v>0.37296775168327345</v>
+        <v>0.16684999199629721</v>
       </c>
       <c r="J156" s="28">
         <f t="shared" si="15"/>
@@ -16806,7 +16751,7 @@
         <v>1011</v>
       </c>
       <c r="P156" s="34">
-        <v>10971</v>
+        <v>24524</v>
       </c>
       <c r="Q156" s="42">
         <v>1.9205833299999999E-2</v>
@@ -16834,7 +16779,7 @@
       </c>
       <c r="I157" s="28">
         <f t="shared" si="14"/>
-        <v>0.38394654968241226</v>
+        <v>0.15514395503901732</v>
       </c>
       <c r="J157" s="38">
         <f t="shared" si="15"/>
@@ -16859,7 +16804,7 @@
         <v>1305</v>
       </c>
       <c r="P157" s="37">
-        <v>13063</v>
+        <v>32328</v>
       </c>
       <c r="Q157" s="42">
         <v>1.9205833299999999E-2</v>
@@ -16890,8 +16835,8 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16917,7 +16862,7 @@
         <v>95</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>37</v>
@@ -16934,16 +16879,16 @@
         <v>114</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -16955,10 +16900,10 @@
         <v>116</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>9</v>
@@ -16978,10 +16923,10 @@
         <v>117</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>9</v>
@@ -16998,13 +16943,13 @@
         <v>124</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>8</v>
@@ -17024,13 +16969,13 @@
         <v>121</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>39</v>
@@ -17047,13 +16992,13 @@
         <v>120</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>39</v>
@@ -17067,16 +17012,16 @@
         <v>124</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>39</v>
@@ -17093,10 +17038,10 @@
         <v>110</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>7</v>
@@ -17113,19 +17058,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>115</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>112</v>
@@ -17139,13 +17084,13 @@
         <v>105</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>39</v>
@@ -17177,81 +17122,4 @@
     <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7969806A-6EAC-4465-8AB1-2D1BFFF43642}">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="4" width="16.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>